--- a/builds/development/data/maindata.xlsx
+++ b/builds/development/data/maindata.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rentalHousing" sheetId="1" r:id="rId1"/>
     <sheet name="costBurden" sheetId="2" r:id="rId2"/>
     <sheet name="source" sheetId="3" r:id="rId3"/>
+    <sheet name="layout" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1233,7 +1233,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" ht="15.75" customHeight="1">
       <c r="A2" s="11">
         <v>43000</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>7186</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" ht="15.75" customHeight="1">
       <c r="A3" s="11">
         <v>58000</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>11657</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" ht="15.75" customHeight="1">
       <c r="A4" s="11">
         <v>6616</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" ht="15.75" customHeight="1">
       <c r="A5" s="11">
         <v>57220</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" ht="15.75" customHeight="1">
       <c r="A6" s="11">
         <v>8794</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" ht="15.75" customHeight="1">
       <c r="A7" s="11">
         <v>51730</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" ht="15.75" customHeight="1">
       <c r="A8" s="11">
         <v>7966</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" ht="15.75" customHeight="1">
       <c r="A9" s="11">
         <v>17288</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" ht="15.75" customHeight="1">
       <c r="A10" s="11">
         <v>18116</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" ht="15.75" customHeight="1">
       <c r="A11" s="11">
         <v>43252</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" ht="15.75" customHeight="1">
       <c r="A12" s="11">
         <v>18188</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" ht="15.75" customHeight="1">
       <c r="A13" s="11">
         <v>30140</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" ht="15.75" customHeight="1">
       <c r="A14" s="11">
         <v>71428</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" ht="15.75" customHeight="1">
       <c r="A15" s="11">
         <v>54214</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" ht="15.75" customHeight="1">
       <c r="A16" s="11">
         <v>13114</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" ht="15.75" customHeight="1">
       <c r="A17" s="11">
         <v>55852</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" ht="15.75" customHeight="1">
       <c r="A18" s="11">
         <v>7948</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" ht="15.75" customHeight="1">
       <c r="A19" s="11">
         <v>45628</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" ht="15.75" customHeight="1">
       <c r="A20" s="11">
         <v>22814</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" ht="15.75" customHeight="1">
       <c r="A21" s="11">
         <v>40382</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" ht="15.75" customHeight="1">
       <c r="A22" s="11">
         <v>1900</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" ht="15.75" customHeight="1">
       <c r="A23" s="11">
         <v>31076</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" ht="15.75" customHeight="1">
       <c r="A24" s="11">
         <v>69700</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" ht="15.75" customHeight="1">
       <c r="A25" s="11">
         <v>40166</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" ht="15.75" customHeight="1">
       <c r="A26" s="11">
         <v>59350</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" ht="15.75" customHeight="1">
       <c r="A27" s="11">
         <v>1720</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" ht="15.75" customHeight="1">
       <c r="A28" s="11">
         <v>45430</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" ht="15.75" customHeight="1">
       <c r="A29" s="11">
         <v>47680</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" ht="15.75" customHeight="1">
       <c r="A30" s="11">
         <v>69970</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" ht="15.75" customHeight="1">
       <c r="A31" s="11">
         <v>12700</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" ht="15.75" customHeight="1">
       <c r="A32" s="11">
         <v>61492</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" ht="15.75" customHeight="1">
       <c r="A33" s="11">
         <v>6382</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" ht="15.75" customHeight="1">
       <c r="A34" s="11">
         <v>10972</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" ht="15.75" customHeight="1">
       <c r="A35" s="11">
         <v>14158</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" ht="15.75" customHeight="1">
       <c r="A36" s="11">
         <v>35180</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" ht="15.75" customHeight="1">
       <c r="A37" s="11">
         <v>27530</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" ht="15.75" customHeight="1">
       <c r="A38" s="11">
         <v>62824</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" ht="15.75" customHeight="1">
       <c r="A39" s="11">
         <v>24308</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" ht="15.75" customHeight="1">
       <c r="A40" s="11">
         <v>54808</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" ht="15.75" customHeight="1">
       <c r="A41" s="11">
         <v>21770</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" ht="15.75" customHeight="1">
       <c r="A42" s="11">
         <v>59998</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" ht="15.75" customHeight="1">
       <c r="A43" s="11">
         <v>56680</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" ht="15.75" customHeight="1">
       <c r="A44" s="11">
         <v>52594</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" ht="15.75" customHeight="1">
       <c r="A45" s="11">
         <v>37502</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" ht="15.75" customHeight="1">
       <c r="A46" s="11">
         <v>47221</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" ht="15.75" customHeight="1">
       <c r="A47" s="11">
         <v>13456</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" ht="15.75" customHeight="1">
       <c r="A48" s="11">
         <v>10918</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" ht="15.75" customHeight="1">
       <c r="A49" s="11">
         <v>58738</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" ht="15.75" customHeight="1">
       <c r="A50" s="11">
         <v>44530</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>-189</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" ht="15.75" customHeight="1">
       <c r="A51" s="11">
         <v>10846</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" ht="15.75" customHeight="1">
       <c r="A52" s="11">
         <v>47914</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" ht="15.75" customHeight="1">
       <c r="A53" s="11">
         <v>55726</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" ht="15.75" customHeight="1">
       <c r="A54" s="11">
         <v>44476</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" ht="15.75" customHeight="1">
       <c r="A55" s="11">
         <v>20420</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" ht="15.75" customHeight="1">
       <c r="A56" s="11">
         <v>20618</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" ht="15.75" customHeight="1">
       <c r="A57" s="11">
         <v>68818</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" ht="15.75" customHeight="1">
       <c r="A58" s="11">
         <v>67432</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" ht="15.75" customHeight="1">
       <c r="A59" s="11">
         <v>66460</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" ht="15.75" customHeight="1">
       <c r="A60" s="11">
         <v>53026</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" ht="15.75" customHeight="1">
       <c r="A61" s="11">
         <v>55186</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" ht="15.75" customHeight="1">
       <c r="A62" s="11">
         <v>62014</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" ht="15.75" customHeight="1">
       <c r="A63" s="11">
         <v>61996</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" ht="15.75" customHeight="1">
       <c r="A64" s="11">
         <v>1486</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" ht="15.75" customHeight="1">
       <c r="A65" s="11">
         <v>20078</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" ht="15.75" customHeight="1">
       <c r="A66" s="11">
         <v>35738</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" ht="15.75" customHeight="1">
       <c r="A67" s="11">
         <v>30392</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" ht="15.75" customHeight="1">
       <c r="A68" s="11">
         <v>49012</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" ht="15.75" customHeight="1">
       <c r="A69" s="11">
         <v>48580</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" ht="15.75" customHeight="1">
       <c r="A70" s="11">
         <v>47520</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" ht="15.75" customHeight="1">
       <c r="A71" s="11">
         <v>39428</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" ht="15.75" customHeight="1">
       <c r="A72" s="11">
         <v>45790</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" ht="15.75" customHeight="1">
       <c r="A73" s="11">
         <v>41696</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" ht="15.75" customHeight="1">
       <c r="A74" s="11">
         <v>37322</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" ht="15.75" customHeight="1">
       <c r="A75" s="11">
         <v>45808</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" ht="15.75" customHeight="1">
       <c r="A76" s="11">
         <v>32174</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" ht="15.75" customHeight="1">
       <c r="A77" s="11">
         <v>11494</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" ht="15.75" customHeight="1">
       <c r="A78" s="11">
         <v>56950</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" ht="15.75" customHeight="1">
       <c r="A79" s="11">
         <v>2026</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" ht="15.75" customHeight="1">
       <c r="A80" s="11">
         <v>4834</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:41" ht="15.75" customHeight="1">
       <c r="A81" s="11">
         <v>26738</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" spans="1:41" ht="15.75" customHeight="1">
       <c r="A82" s="11">
         <v>47104</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" spans="1:41" ht="15.75" customHeight="1">
       <c r="A83" s="11">
         <v>58018</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" spans="1:41" ht="15.75" customHeight="1">
       <c r="A84" s="11">
         <v>4114</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" spans="1:41" ht="15.75" customHeight="1">
       <c r="A85" s="11">
         <v>68548</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" spans="1:41" ht="15.75" customHeight="1">
       <c r="A86" s="11">
         <v>60016</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" spans="1:41" ht="15.75" customHeight="1">
       <c r="A87" s="11">
         <v>36836</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" spans="1:41" ht="15.75" customHeight="1">
       <c r="A88" s="11">
         <v>38006</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" spans="1:41" ht="15.75" customHeight="1">
       <c r="A89" s="11">
         <v>67036</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" spans="1:41" ht="15.75" customHeight="1">
       <c r="A90" s="11">
         <v>40256</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>-89</v>
       </c>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" spans="1:41" ht="15.75" customHeight="1">
       <c r="A91" s="11">
         <v>18662</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" spans="1:41" ht="15.75" customHeight="1">
       <c r="A92" s="11">
         <v>37016</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" spans="1:41" ht="15.75" customHeight="1">
       <c r="A93" s="11">
         <v>69916</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>-84</v>
       </c>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" spans="1:41" ht="15.75" customHeight="1">
       <c r="A94" s="11">
         <v>58900</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" spans="1:41" ht="15.75" customHeight="1">
       <c r="A95" s="11">
         <v>34244</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" spans="1:41" ht="15.75" customHeight="1">
       <c r="A96" s="11">
         <v>17486</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" spans="1:41" ht="15.75" customHeight="1">
       <c r="A97" s="11">
         <v>47690</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" spans="1:41" ht="15.75" customHeight="1">
       <c r="A98" s="11">
         <v>10648</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" spans="1:41" ht="15.75" customHeight="1">
       <c r="A99" s="11">
         <v>37376</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:41">
+    <row r="100" spans="1:41" ht="15.75" customHeight="1">
       <c r="A100" s="11">
         <v>21965</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:41">
+    <row r="101" spans="1:41" ht="15.75" customHeight="1">
       <c r="A101" s="11">
         <v>43306</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:41">
+    <row r="102" spans="1:41" ht="15.75" customHeight="1">
       <c r="A102" s="11">
         <v>34865</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:41">
+    <row r="103" spans="1:41" ht="15.75" customHeight="1">
       <c r="A103" s="11">
         <v>47536</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" spans="1:41" ht="15.75" customHeight="1">
       <c r="A104" s="11">
         <v>41480</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:41">
+    <row r="105" spans="1:41" ht="15.75" customHeight="1">
       <c r="A105" s="11">
         <v>56770</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" spans="1:41" ht="15.75" customHeight="1">
       <c r="A106" s="11">
         <v>19376</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:41">
+    <row r="107" spans="1:41" ht="15.75" customHeight="1">
       <c r="A107" s="11">
         <v>12664</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" spans="1:41" ht="15.75" customHeight="1">
       <c r="A108" s="11">
         <v>46330</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" spans="1:41" ht="15.75" customHeight="1">
       <c r="A109" s="11">
         <v>10144</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:41">
+    <row r="110" spans="1:41" ht="15.75" customHeight="1">
       <c r="A110" s="11">
         <v>30842</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:41">
+    <row r="111" spans="1:41" ht="15.75" customHeight="1">
       <c r="A111" s="11">
         <v>316</v>
       </c>
@@ -15323,7 +15323,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:41">
+    <row r="112" spans="1:41" ht="15.75" customHeight="1">
       <c r="A112" s="11">
         <v>58324</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:41">
+    <row r="113" spans="1:41" ht="15.75" customHeight="1">
       <c r="A113" s="11">
         <v>13168</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="114" spans="1:41">
+    <row r="114" spans="1:41" ht="15.75" customHeight="1">
       <c r="A114" s="11">
         <v>25622</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="115" spans="1:41">
+    <row r="115" spans="1:41" ht="15.75" customHeight="1">
       <c r="A115" s="11">
         <v>55006</v>
       </c>
@@ -15830,7 +15830,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" spans="1:41" ht="15.75" customHeight="1">
       <c r="A116" s="11">
         <v>65164</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:41">
+    <row r="117" spans="1:41" ht="15.75" customHeight="1">
       <c r="A117" s="11">
         <v>26864</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" spans="1:41" ht="15.75" customHeight="1">
       <c r="A118" s="11">
         <v>15148</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:41">
+    <row r="119" spans="1:41" ht="15.75" customHeight="1">
       <c r="A119" s="11">
         <v>12718</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:41">
+    <row r="120" spans="1:41" ht="15.75" customHeight="1">
       <c r="A120" s="11">
         <v>13726</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:41">
+    <row r="121" spans="1:41" ht="15.75" customHeight="1">
       <c r="A121" s="11">
         <v>15022</v>
       </c>
@@ -16592,7 +16592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:41">
+    <row r="122" spans="1:41" ht="15.75" customHeight="1">
       <c r="A122" s="11">
         <v>35108</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:41">
+    <row r="123" spans="1:41" ht="15.75" customHeight="1">
       <c r="A123" s="11">
         <v>10306</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" spans="1:41" ht="15.75" customHeight="1">
       <c r="A124" s="11">
         <v>29726</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" spans="1:41" ht="15.75" customHeight="1">
       <c r="A125" s="11">
         <v>46924</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="1:41">
+    <row r="126" spans="1:41" ht="15.75" customHeight="1">
       <c r="A126" s="11">
         <v>45754</v>
       </c>
@@ -17227,7 +17227,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="127" spans="1:41">
+    <row r="127" spans="1:41" ht="15.75" customHeight="1">
       <c r="A127" s="11">
         <v>14482</v>
       </c>
@@ -17354,7 +17354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:41">
+    <row r="128" spans="1:41" ht="15.75" customHeight="1">
       <c r="A128" s="11">
         <v>15688</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:41">
+    <row r="129" spans="1:41" ht="15.75" customHeight="1">
       <c r="A129" s="11">
         <v>53260</v>
       </c>
@@ -17608,7 +17608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:41">
+    <row r="130" spans="1:41" ht="15.75" customHeight="1">
       <c r="A130" s="11">
         <v>69520</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:41">
+    <row r="131" spans="1:41" ht="15.75" customHeight="1">
       <c r="A131" s="11">
         <v>6058</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="132" spans="1:41">
+    <row r="132" spans="1:41" ht="15.75" customHeight="1">
       <c r="A132" s="11">
         <v>41462</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:41">
+    <row r="133" spans="1:41" ht="15.75" customHeight="1">
       <c r="A133" s="11">
         <v>25334</v>
       </c>
@@ -18116,7 +18116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:41">
+    <row r="134" spans="1:41" ht="15.75" customHeight="1">
       <c r="A134" s="11">
         <v>70366</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:41">
+    <row r="135" spans="1:41" ht="15.75" customHeight="1">
       <c r="A135" s="11">
         <v>41138</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:41">
+    <row r="136" spans="1:41" ht="15.75" customHeight="1">
       <c r="A136" s="11">
         <v>38222</v>
       </c>
@@ -18497,7 +18497,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="137" spans="1:41">
+    <row r="137" spans="1:41" ht="15.75" customHeight="1">
       <c r="A137" s="11">
         <v>29258</v>
       </c>
@@ -18624,7 +18624,7 @@
         <v>-125</v>
       </c>
     </row>
-    <row r="138" spans="1:41">
+    <row r="138" spans="1:41" ht="15.75" customHeight="1">
       <c r="A138" s="11">
         <v>40562</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:41">
+    <row r="139" spans="1:41" ht="15.75" customHeight="1">
       <c r="A139" s="11">
         <v>40724</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="140" spans="1:41">
+    <row r="140" spans="1:41" ht="15.75" customHeight="1">
       <c r="A140" s="11">
         <v>53098</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:41">
+    <row r="141" spans="1:41" ht="15.75" customHeight="1">
       <c r="A141" s="11">
         <v>41120</v>
       </c>
@@ -19132,7 +19132,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="142" spans="1:41">
+    <row r="142" spans="1:41" ht="15.75" customHeight="1">
       <c r="A142" s="11">
         <v>26882</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:41">
+    <row r="143" spans="1:41" ht="15.75" customHeight="1">
       <c r="A143" s="11">
         <v>28322</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="1:41">
+    <row r="144" spans="1:41" ht="15.75" customHeight="1">
       <c r="A144" s="11">
         <v>41678</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:41">
+    <row r="145" spans="1:41" ht="15.75" customHeight="1">
       <c r="A145" s="11">
         <v>45556</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="146" spans="1:41">
+    <row r="146" spans="1:41" ht="15.75" customHeight="1">
       <c r="A146" s="11">
         <v>10450</v>
       </c>
@@ -19767,7 +19767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:41">
+    <row r="147" spans="1:41" ht="15.75" customHeight="1">
       <c r="A147" s="11">
         <v>26666</v>
       </c>
@@ -19894,7 +19894,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="148" spans="1:41">
+    <row r="148" spans="1:41" ht="15.75" customHeight="1">
       <c r="A148" s="11">
         <v>62842</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:41">
+    <row r="149" spans="1:41" ht="15.75" customHeight="1">
       <c r="A149" s="11">
         <v>4132</v>
       </c>
@@ -20148,7 +20148,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="150" spans="1:41">
+    <row r="150" spans="1:41" ht="15.75" customHeight="1">
       <c r="A150" s="11">
         <v>68566</v>
       </c>
@@ -20275,7 +20275,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="151" spans="1:41">
+    <row r="151" spans="1:41" ht="15.75" customHeight="1">
       <c r="A151" s="11">
         <v>31580</v>
       </c>
@@ -20402,7 +20402,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="152" spans="1:41">
+    <row r="152" spans="1:41" ht="15.75" customHeight="1">
       <c r="A152" s="11">
         <v>34622</v>
       </c>
@@ -20529,7 +20529,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="153" spans="1:41">
+    <row r="153" spans="1:41" ht="15.75" customHeight="1">
       <c r="A153" s="11">
         <v>6418</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:41">
+    <row r="154" spans="1:41" ht="15.75" customHeight="1">
       <c r="A154" s="11">
         <v>25918</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="155" spans="1:41">
+    <row r="155" spans="1:41" ht="15.75" customHeight="1">
       <c r="A155" s="11">
         <v>67450</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="156" spans="1:41">
+    <row r="156" spans="1:41" ht="15.75" customHeight="1">
       <c r="A156" s="11">
         <v>19871</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="157" spans="1:41">
+    <row r="157" spans="1:41" ht="15.75" customHeight="1">
       <c r="A157" s="11">
         <v>38294</v>
       </c>
@@ -21164,7 +21164,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="158" spans="1:41">
+    <row r="158" spans="1:41" ht="15.75" customHeight="1">
       <c r="A158" s="11">
         <v>5554</v>
       </c>
@@ -21291,7 +21291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:41">
+    <row r="159" spans="1:41" ht="15.75" customHeight="1">
       <c r="A159" s="11">
         <v>12376</v>
       </c>
@@ -21418,7 +21418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:41">
+    <row r="160" spans="1:41" ht="15.75" customHeight="1">
       <c r="A160" s="11">
         <v>9406</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:41">
+    <row r="161" spans="1:41" ht="15.75" customHeight="1">
       <c r="A161" s="11">
         <v>57292</v>
       </c>
@@ -21672,7 +21672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:41">
+    <row r="162" spans="1:41" ht="15.75" customHeight="1">
       <c r="A162" s="11">
         <v>66820</v>
       </c>
@@ -21799,7 +21799,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="163" spans="1:41">
+    <row r="163" spans="1:41" ht="15.75" customHeight="1">
       <c r="A163" s="11">
         <v>16228</v>
       </c>
@@ -21926,7 +21926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:41">
+    <row r="164" spans="1:41" ht="15.75" customHeight="1">
       <c r="A164" s="11">
         <v>68530</v>
       </c>
@@ -22053,7 +22053,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="165" spans="1:41">
+    <row r="165" spans="1:41" ht="15.75" customHeight="1">
       <c r="A165" s="11">
         <v>53116</v>
       </c>
@@ -22180,7 +22180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:41">
+    <row r="166" spans="1:41" ht="15.75" customHeight="1">
       <c r="A166" s="11">
         <v>23318</v>
       </c>
@@ -22307,7 +22307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:41">
+    <row r="167" spans="1:41" ht="15.75" customHeight="1">
       <c r="A167" s="11">
         <v>5266</v>
       </c>
@@ -22434,7 +22434,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="168" spans="1:41">
+    <row r="168" spans="1:41" ht="15.75" customHeight="1">
       <c r="A168" s="11">
         <v>15616</v>
       </c>
@@ -22561,7 +22561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:41">
+    <row r="169" spans="1:41" ht="15.75" customHeight="1">
       <c r="A169" s="11">
         <v>43270</v>
       </c>
@@ -22688,7 +22688,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="170" spans="1:41">
+    <row r="170" spans="1:41" ht="15.75" customHeight="1">
       <c r="A170" s="11">
         <v>26918</v>
       </c>
@@ -22815,7 +22815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:41">
+    <row r="171" spans="1:41" ht="15.75" customHeight="1">
       <c r="A171" s="11">
         <v>66802</v>
       </c>
@@ -22942,7 +22942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:41">
+    <row r="172" spans="1:41" ht="15.75" customHeight="1">
       <c r="A172" s="11">
         <v>4852</v>
       </c>
@@ -23069,7 +23069,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="173" spans="1:41">
+    <row r="173" spans="1:41" ht="15.75" customHeight="1">
       <c r="A173" s="11">
         <v>25802</v>
       </c>
@@ -23196,7 +23196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:41">
+    <row r="174" spans="1:41" ht="15.75" customHeight="1">
       <c r="A174" s="11">
         <v>42092</v>
       </c>
@@ -23323,7 +23323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:41">
+    <row r="175" spans="1:41" ht="15.75" customHeight="1">
       <c r="A175" s="11">
         <v>25982</v>
       </c>
@@ -23450,7 +23450,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="176" spans="1:41">
+    <row r="176" spans="1:41" ht="15.75" customHeight="1">
       <c r="A176" s="11">
         <v>58486</v>
       </c>
@@ -23577,7 +23577,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="177" spans="1:41">
+    <row r="177" spans="1:41" ht="15.75" customHeight="1">
       <c r="A177" s="11">
         <v>71500</v>
       </c>
@@ -23704,7 +23704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:41">
+    <row r="178" spans="1:41" ht="15.75" customHeight="1">
       <c r="A178" s="11">
         <v>61978</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="179" spans="1:41">
+    <row r="179" spans="1:41" ht="15.75" customHeight="1">
       <c r="A179" s="11">
         <v>34658</v>
       </c>
@@ -23952,7 +23952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:41">
+    <row r="180" spans="1:41" ht="15.75" customHeight="1">
       <c r="A180" s="11">
         <v>63544</v>
       </c>
@@ -24079,7 +24079,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="181" spans="1:41">
+    <row r="181" spans="1:41" ht="15.75" customHeight="1">
       <c r="A181" s="11">
         <v>51316</v>
       </c>
@@ -24204,7 +24204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:41">
+    <row r="182" spans="1:41" ht="15.75" customHeight="1">
       <c r="A182" s="11">
         <v>57184</v>
       </c>
@@ -24331,7 +24331,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="183" spans="1:41">
+    <row r="183" spans="1:41" ht="15.75" customHeight="1">
       <c r="A183" s="11">
         <v>26990</v>
       </c>
@@ -24458,7 +24458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:41">
+    <row r="184" spans="1:41" ht="15.75" customHeight="1">
       <c r="A184" s="11">
         <v>46024</v>
       </c>
@@ -24585,7 +24585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:41">
+    <row r="185" spans="1:41" ht="15.75" customHeight="1">
       <c r="A185" s="11">
         <v>59008</v>
       </c>
@@ -24712,7 +24712,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="186" spans="1:41">
+    <row r="186" spans="1:41" ht="15.75" customHeight="1">
       <c r="A186" s="11">
         <v>72130</v>
       </c>
@@ -24839,7 +24839,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="187" spans="1:41">
+    <row r="187" spans="1:41" ht="15.75" customHeight="1">
       <c r="A187" s="11">
         <v>35414</v>
       </c>
@@ -24985,7 +24985,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -25005,7 +25005,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
@@ -25025,7 +25025,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
@@ -25045,7 +25045,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -25085,7 +25085,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -25105,7 +25105,7 @@
         <v>0.307</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -25125,7 +25125,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
@@ -25185,7 +25185,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -25205,7 +25205,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -25225,7 +25225,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -25245,7 +25245,7 @@
         <v>0.36899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -25265,7 +25265,7 @@
         <v>0.307</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
@@ -25285,7 +25285,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -25305,7 +25305,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -25325,7 +25325,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>135</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
@@ -25385,7 +25385,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>95</v>
       </c>
@@ -25405,7 +25405,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -25445,7 +25445,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
@@ -25465,7 +25465,7 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -25485,7 +25485,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -25505,7 +25505,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -25525,7 +25525,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -25565,7 +25565,7 @@
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
@@ -25585,7 +25585,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>113</v>
       </c>
@@ -25605,7 +25605,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -25625,7 +25625,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -25645,7 +25645,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>112</v>
       </c>
@@ -25665,7 +25665,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -25685,7 +25685,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>89</v>
       </c>
@@ -25725,7 +25725,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
@@ -25745,7 +25745,7 @@
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
@@ -25765,7 +25765,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
@@ -25785,7 +25785,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>68</v>
       </c>
@@ -25805,7 +25805,7 @@
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -25825,7 +25825,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>99</v>
       </c>
@@ -25865,7 +25865,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
@@ -25885,7 +25885,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
@@ -25905,7 +25905,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>100</v>
       </c>
@@ -25925,7 +25925,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>88</v>
       </c>
@@ -25985,7 +25985,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -26005,7 +26005,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>81</v>
       </c>
@@ -26025,7 +26025,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
@@ -26045,7 +26045,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>44</v>
       </c>
@@ -26065,7 +26065,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>42</v>
       </c>
@@ -26085,7 +26085,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>77</v>
       </c>
@@ -26105,7 +26105,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>98</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>97</v>
       </c>
@@ -26145,7 +26145,7 @@
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -26165,7 +26165,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -26185,7 +26185,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>53</v>
       </c>
@@ -26205,7 +26205,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>233</v>
       </c>
@@ -26239,13 +26239,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E530"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>234</v>
       </c>
@@ -26254,7 +26254,7 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="35">
         <v>2017</v>
       </c>
@@ -26263,3696 +26263,3696 @@
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="35"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="35"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="38"/>
       <c r="B6" s="39"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="35"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="35"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="35"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="35"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="38"/>
       <c r="B13" s="39"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="38"/>
       <c r="B14" s="39"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="35"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="35"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="35"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="35"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="35"/>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="35"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="35"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="38"/>
       <c r="B23" s="39"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="35"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="35"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="35"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="35"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="38"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="35"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="38"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="35"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="38"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="35"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="35"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="38"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="35"/>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
       <c r="D37" s="37"/>
       <c r="E37" s="34"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="38"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="35"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="38"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="35"/>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="35"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
       <c r="E42" s="36"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="38"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="35"/>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="35"/>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="35"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="35"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" s="35"/>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" s="38"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="35"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
       <c r="E53" s="37"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="38"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="A55" s="35"/>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" s="35"/>
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
       <c r="E56" s="36"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
       <c r="A58" s="35"/>
       <c r="B58" s="34"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
       <c r="A59" s="38"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
       <c r="A60" s="35"/>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
       <c r="E60" s="37"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
       <c r="A61" s="38"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
       <c r="A62" s="35"/>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
       <c r="A63" s="35"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
       <c r="A64" s="38"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1">
       <c r="A65" s="35"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
       <c r="D65" s="37"/>
       <c r="E65" s="37"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
       <c r="A66" s="38"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
       <c r="A67" s="35"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
       <c r="A68" s="38"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
       <c r="A69" s="35"/>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="33"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
       <c r="A70" s="35"/>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
       <c r="D70" s="36"/>
       <c r="E70" s="36"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
       <c r="A71" s="38"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
       <c r="A72" s="35"/>
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
       <c r="E72" s="37"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1">
       <c r="A73" s="38"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
       <c r="D73" s="33"/>
       <c r="E73" s="33"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
       <c r="A74" s="35"/>
       <c r="B74" s="37"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
       <c r="E74" s="37"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
       <c r="A75" s="38"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="35"/>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
       <c r="E76" s="33"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1">
       <c r="A77" s="35"/>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
       <c r="D77" s="36"/>
       <c r="E77" s="36"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1">
       <c r="A78" s="38"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
       <c r="D78" s="33"/>
       <c r="E78" s="33"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1">
       <c r="A79" s="35"/>
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
       <c r="D79" s="37"/>
       <c r="E79" s="37"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1">
       <c r="A80" s="38"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
       <c r="D80" s="33"/>
       <c r="E80" s="33"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1">
       <c r="A81" s="35"/>
       <c r="B81" s="37"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1">
       <c r="A82" s="38"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1">
       <c r="A83" s="35"/>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1">
       <c r="A84" s="35"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
       <c r="D84" s="36"/>
       <c r="E84" s="36"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1">
       <c r="A85" s="38"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
       <c r="D85" s="33"/>
       <c r="E85" s="33"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1">
       <c r="A86" s="35"/>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
       <c r="D86" s="37"/>
       <c r="E86" s="37"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1">
       <c r="A87" s="38"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1">
       <c r="A88" s="35"/>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
       <c r="E88" s="37"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1">
       <c r="A89" s="38"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
       <c r="D89" s="33"/>
       <c r="E89" s="33"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1">
       <c r="A90" s="35"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
       <c r="E90" s="33"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1">
       <c r="A91" s="35"/>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
       <c r="D91" s="36"/>
       <c r="E91" s="36"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1">
       <c r="A92" s="38"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
       <c r="D92" s="33"/>
       <c r="E92" s="33"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1">
       <c r="A93" s="35"/>
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
       <c r="D93" s="37"/>
       <c r="E93" s="37"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1">
       <c r="A94" s="38"/>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
       <c r="D94" s="33"/>
       <c r="E94" s="33"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1">
       <c r="A95" s="35"/>
       <c r="B95" s="37"/>
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
       <c r="E95" s="37"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1">
       <c r="A96" s="38"/>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
       <c r="D96" s="33"/>
       <c r="E96" s="33"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1">
       <c r="A97" s="35"/>
       <c r="B97" s="33"/>
       <c r="C97" s="33"/>
       <c r="D97" s="33"/>
       <c r="E97" s="33"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1">
       <c r="A98" s="35"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
       <c r="D98" s="36"/>
       <c r="E98" s="36"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1">
       <c r="A99" s="38"/>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
       <c r="D99" s="33"/>
       <c r="E99" s="33"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1">
       <c r="A100" s="35"/>
       <c r="B100" s="37"/>
       <c r="C100" s="37"/>
       <c r="D100" s="37"/>
       <c r="E100" s="37"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1">
       <c r="A101" s="38"/>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
       <c r="D101" s="33"/>
       <c r="E101" s="33"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1">
       <c r="A102" s="35"/>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
       <c r="E102" s="37"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1">
       <c r="A103" s="38"/>
       <c r="B103" s="39"/>
       <c r="C103" s="39"/>
       <c r="D103" s="33"/>
       <c r="E103" s="33"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1">
       <c r="A104" s="38"/>
       <c r="B104" s="39"/>
       <c r="C104" s="33"/>
       <c r="D104" s="33"/>
       <c r="E104" s="33"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1">
       <c r="A105" s="35"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
       <c r="D105" s="36"/>
       <c r="E105" s="36"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" ht="15.75" customHeight="1">
       <c r="A106" s="38"/>
       <c r="B106" s="39"/>
       <c r="C106" s="39"/>
       <c r="D106" s="33"/>
       <c r="E106" s="33"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1">
       <c r="A107" s="35"/>
       <c r="B107" s="37"/>
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
       <c r="E107" s="37"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1">
       <c r="A108" s="38"/>
       <c r="B108" s="39"/>
       <c r="C108" s="39"/>
       <c r="D108" s="33"/>
       <c r="E108" s="33"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1">
       <c r="A109" s="35"/>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
       <c r="E109" s="37"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1">
       <c r="A110" s="38"/>
       <c r="B110" s="39"/>
       <c r="C110" s="39"/>
       <c r="D110" s="33"/>
       <c r="E110" s="33"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1">
       <c r="A111" s="38"/>
       <c r="B111" s="39"/>
       <c r="C111" s="33"/>
       <c r="D111" s="33"/>
       <c r="E111" s="33"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1">
       <c r="A112" s="35"/>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
       <c r="D112" s="36"/>
       <c r="E112" s="36"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1">
       <c r="A113" s="38"/>
       <c r="B113" s="39"/>
       <c r="C113" s="39"/>
       <c r="D113" s="33"/>
       <c r="E113" s="33"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" ht="15.75" customHeight="1">
       <c r="A114" s="35"/>
       <c r="B114" s="34"/>
       <c r="C114" s="34"/>
       <c r="D114" s="37"/>
       <c r="E114" s="37"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" ht="15.75" customHeight="1">
       <c r="A115" s="38"/>
       <c r="B115" s="39"/>
       <c r="C115" s="39"/>
       <c r="D115" s="33"/>
       <c r="E115" s="33"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1">
       <c r="A116" s="35"/>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
       <c r="D116" s="37"/>
       <c r="E116" s="37"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1">
       <c r="A117" s="38"/>
       <c r="B117" s="39"/>
       <c r="C117" s="39"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" ht="15.75" customHeight="1">
       <c r="A118" s="35"/>
       <c r="B118" s="33"/>
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
       <c r="E118" s="33"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="15.75" customHeight="1">
       <c r="A119" s="35"/>
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
       <c r="D119" s="36"/>
       <c r="E119" s="36"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1">
       <c r="A120" s="38"/>
       <c r="B120" s="39"/>
       <c r="C120" s="39"/>
       <c r="D120" s="33"/>
       <c r="E120" s="33"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" ht="15.75" customHeight="1">
       <c r="A121" s="35"/>
       <c r="B121" s="34"/>
       <c r="C121" s="34"/>
       <c r="D121" s="37"/>
       <c r="E121" s="37"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" ht="15.75" customHeight="1">
       <c r="A122" s="38"/>
       <c r="B122" s="39"/>
       <c r="C122" s="39"/>
       <c r="D122" s="33"/>
       <c r="E122" s="33"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" ht="15.75" customHeight="1">
       <c r="A123" s="35"/>
       <c r="B123" s="37"/>
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
       <c r="E123" s="37"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" ht="15.75" customHeight="1">
       <c r="A124" s="38"/>
       <c r="B124" s="39"/>
       <c r="C124" s="39"/>
       <c r="D124" s="33"/>
       <c r="E124" s="33"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" ht="15.75" customHeight="1">
       <c r="A125" s="35"/>
       <c r="B125" s="33"/>
       <c r="C125" s="33"/>
       <c r="D125" s="33"/>
       <c r="E125" s="33"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" ht="15.75" customHeight="1">
       <c r="A126" s="35"/>
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
       <c r="D126" s="36"/>
       <c r="E126" s="36"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" ht="15.75" customHeight="1">
       <c r="A127" s="38"/>
       <c r="B127" s="39"/>
       <c r="C127" s="39"/>
       <c r="D127" s="33"/>
       <c r="E127" s="33"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" ht="15.75" customHeight="1">
       <c r="A128" s="35"/>
       <c r="B128" s="37"/>
       <c r="C128" s="37"/>
       <c r="D128" s="37"/>
       <c r="E128" s="37"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" ht="15.75" customHeight="1">
       <c r="A129" s="38"/>
       <c r="B129" s="39"/>
       <c r="C129" s="39"/>
       <c r="D129" s="33"/>
       <c r="E129" s="33"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" ht="15.75" customHeight="1">
       <c r="A130" s="35"/>
       <c r="B130" s="37"/>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
       <c r="E130" s="37"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1">
       <c r="A131" s="38"/>
       <c r="B131" s="39"/>
       <c r="C131" s="39"/>
       <c r="D131" s="33"/>
       <c r="E131" s="33"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" ht="15.75" customHeight="1">
       <c r="A132" s="35"/>
       <c r="B132" s="33"/>
       <c r="C132" s="33"/>
       <c r="D132" s="33"/>
       <c r="E132" s="33"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" ht="15.75" customHeight="1">
       <c r="A133" s="35"/>
       <c r="B133" s="36"/>
       <c r="C133" s="36"/>
       <c r="D133" s="36"/>
       <c r="E133" s="36"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" ht="15.75" customHeight="1">
       <c r="A134" s="38"/>
       <c r="B134" s="39"/>
       <c r="C134" s="39"/>
       <c r="D134" s="33"/>
       <c r="E134" s="33"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1">
       <c r="A135" s="35"/>
       <c r="B135" s="37"/>
       <c r="C135" s="37"/>
       <c r="D135" s="37"/>
       <c r="E135" s="37"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" ht="15.75" customHeight="1">
       <c r="A136" s="38"/>
       <c r="B136" s="39"/>
       <c r="C136" s="39"/>
       <c r="D136" s="33"/>
       <c r="E136" s="33"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" ht="15.75" customHeight="1">
       <c r="A137" s="35"/>
       <c r="B137" s="37"/>
       <c r="C137" s="37"/>
       <c r="D137" s="37"/>
       <c r="E137" s="37"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" ht="15.75" customHeight="1">
       <c r="A138" s="38"/>
       <c r="B138" s="39"/>
       <c r="C138" s="39"/>
       <c r="D138" s="33"/>
       <c r="E138" s="33"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1">
       <c r="A139" s="35"/>
       <c r="B139" s="33"/>
       <c r="C139" s="33"/>
       <c r="D139" s="33"/>
       <c r="E139" s="33"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1">
       <c r="A140" s="35"/>
       <c r="B140" s="36"/>
       <c r="C140" s="36"/>
       <c r="D140" s="36"/>
       <c r="E140" s="36"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" ht="15.75" customHeight="1">
       <c r="A141" s="38"/>
       <c r="B141" s="39"/>
       <c r="C141" s="39"/>
       <c r="D141" s="33"/>
       <c r="E141" s="33"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" ht="15.75" customHeight="1">
       <c r="A142" s="35"/>
       <c r="B142" s="37"/>
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
       <c r="E142" s="37"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" ht="15.75" customHeight="1">
       <c r="A143" s="38"/>
       <c r="B143" s="39"/>
       <c r="C143" s="39"/>
       <c r="D143" s="33"/>
       <c r="E143" s="33"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1">
       <c r="A144" s="35"/>
       <c r="B144" s="37"/>
       <c r="C144" s="37"/>
       <c r="D144" s="37"/>
       <c r="E144" s="37"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" ht="15.75" customHeight="1">
       <c r="A145" s="38"/>
       <c r="B145" s="39"/>
       <c r="C145" s="39"/>
       <c r="D145" s="33"/>
       <c r="E145" s="33"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" ht="15.75" customHeight="1">
       <c r="A146" s="35"/>
       <c r="B146" s="33"/>
       <c r="C146" s="33"/>
       <c r="D146" s="33"/>
       <c r="E146" s="33"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1">
       <c r="A147" s="35"/>
       <c r="B147" s="36"/>
       <c r="C147" s="36"/>
       <c r="D147" s="36"/>
       <c r="E147" s="36"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" ht="15.75" customHeight="1">
       <c r="A148" s="38"/>
       <c r="B148" s="39"/>
       <c r="C148" s="39"/>
       <c r="D148" s="33"/>
       <c r="E148" s="33"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1">
       <c r="A149" s="35"/>
       <c r="B149" s="34"/>
       <c r="C149" s="34"/>
       <c r="D149" s="37"/>
       <c r="E149" s="37"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1">
       <c r="A150" s="38"/>
       <c r="B150" s="39"/>
       <c r="C150" s="39"/>
       <c r="D150" s="33"/>
       <c r="E150" s="33"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1">
       <c r="A151" s="35"/>
       <c r="B151" s="34"/>
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
       <c r="E151" s="37"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1">
       <c r="A152" s="38"/>
       <c r="B152" s="39"/>
       <c r="C152" s="39"/>
       <c r="D152" s="33"/>
       <c r="E152" s="33"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1">
       <c r="A153" s="35"/>
       <c r="B153" s="33"/>
       <c r="C153" s="33"/>
       <c r="D153" s="33"/>
       <c r="E153" s="33"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1">
       <c r="A154" s="35"/>
       <c r="B154" s="36"/>
       <c r="C154" s="36"/>
       <c r="D154" s="36"/>
       <c r="E154" s="36"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1">
       <c r="A155" s="38"/>
       <c r="B155" s="39"/>
       <c r="C155" s="39"/>
       <c r="D155" s="33"/>
       <c r="E155" s="33"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1">
       <c r="A156" s="35"/>
       <c r="B156" s="34"/>
       <c r="C156" s="34"/>
       <c r="D156" s="37"/>
       <c r="E156" s="37"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1">
       <c r="A157" s="38"/>
       <c r="B157" s="39"/>
       <c r="C157" s="39"/>
       <c r="D157" s="33"/>
       <c r="E157" s="33"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" ht="15.75" customHeight="1">
       <c r="A158" s="35"/>
       <c r="B158" s="37"/>
       <c r="C158" s="37"/>
       <c r="D158" s="37"/>
       <c r="E158" s="37"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1">
       <c r="A159" s="38"/>
       <c r="B159" s="39"/>
       <c r="C159" s="39"/>
       <c r="D159" s="33"/>
       <c r="E159" s="33"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1">
       <c r="A160" s="38"/>
       <c r="B160" s="39"/>
       <c r="C160" s="33"/>
       <c r="D160" s="33"/>
       <c r="E160" s="33"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" ht="15.75" customHeight="1">
       <c r="A161" s="35"/>
       <c r="B161" s="36"/>
       <c r="C161" s="36"/>
       <c r="D161" s="36"/>
       <c r="E161" s="36"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" ht="15.75" customHeight="1">
       <c r="A162" s="38"/>
       <c r="B162" s="39"/>
       <c r="C162" s="39"/>
       <c r="D162" s="33"/>
       <c r="E162" s="33"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" ht="15.75" customHeight="1">
       <c r="A163" s="35"/>
       <c r="B163" s="37"/>
       <c r="C163" s="37"/>
       <c r="D163" s="37"/>
       <c r="E163" s="37"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" ht="15.75" customHeight="1">
       <c r="A164" s="38"/>
       <c r="B164" s="39"/>
       <c r="C164" s="39"/>
       <c r="D164" s="33"/>
       <c r="E164" s="33"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" ht="15.75" customHeight="1">
       <c r="A165" s="35"/>
       <c r="B165" s="37"/>
       <c r="C165" s="37"/>
       <c r="D165" s="37"/>
       <c r="E165" s="37"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" ht="15.75" customHeight="1">
       <c r="A166" s="38"/>
       <c r="B166" s="39"/>
       <c r="C166" s="39"/>
       <c r="D166" s="33"/>
       <c r="E166" s="33"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" ht="15.75" customHeight="1">
       <c r="A167" s="35"/>
       <c r="B167" s="33"/>
       <c r="C167" s="33"/>
       <c r="D167" s="33"/>
       <c r="E167" s="33"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" ht="15.75" customHeight="1">
       <c r="A168" s="35"/>
       <c r="B168" s="36"/>
       <c r="C168" s="36"/>
       <c r="D168" s="36"/>
       <c r="E168" s="36"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" ht="15.75" customHeight="1">
       <c r="A169" s="38"/>
       <c r="B169" s="39"/>
       <c r="C169" s="39"/>
       <c r="D169" s="33"/>
       <c r="E169" s="33"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" ht="15.75" customHeight="1">
       <c r="A170" s="35"/>
       <c r="B170" s="37"/>
       <c r="C170" s="37"/>
       <c r="D170" s="37"/>
       <c r="E170" s="37"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" ht="15.75" customHeight="1">
       <c r="A171" s="38"/>
       <c r="B171" s="39"/>
       <c r="C171" s="39"/>
       <c r="D171" s="33"/>
       <c r="E171" s="33"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" ht="15.75" customHeight="1">
       <c r="A172" s="35"/>
       <c r="B172" s="37"/>
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
       <c r="E172" s="37"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" ht="15.75" customHeight="1">
       <c r="A173" s="38"/>
       <c r="B173" s="39"/>
       <c r="C173" s="39"/>
       <c r="D173" s="33"/>
       <c r="E173" s="33"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" ht="15.75" customHeight="1">
       <c r="A174" s="35"/>
       <c r="B174" s="33"/>
       <c r="C174" s="33"/>
       <c r="D174" s="33"/>
       <c r="E174" s="33"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" ht="15.75" customHeight="1">
       <c r="A175" s="35"/>
       <c r="B175" s="36"/>
       <c r="C175" s="36"/>
       <c r="D175" s="36"/>
       <c r="E175" s="36"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" ht="15.75" customHeight="1">
       <c r="A176" s="38"/>
       <c r="B176" s="39"/>
       <c r="C176" s="39"/>
       <c r="D176" s="33"/>
       <c r="E176" s="33"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" ht="15.75" customHeight="1">
       <c r="A177" s="35"/>
       <c r="B177" s="34"/>
       <c r="C177" s="34"/>
       <c r="D177" s="37"/>
       <c r="E177" s="37"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" ht="15.75" customHeight="1">
       <c r="A178" s="38"/>
       <c r="B178" s="39"/>
       <c r="C178" s="39"/>
       <c r="D178" s="33"/>
       <c r="E178" s="33"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" ht="15.75" customHeight="1">
       <c r="A179" s="35"/>
       <c r="B179" s="37"/>
       <c r="C179" s="37"/>
       <c r="D179" s="37"/>
       <c r="E179" s="37"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" ht="15.75" customHeight="1">
       <c r="A180" s="38"/>
       <c r="B180" s="39"/>
       <c r="C180" s="39"/>
       <c r="D180" s="33"/>
       <c r="E180" s="33"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" ht="15.75" customHeight="1">
       <c r="A181" s="35"/>
       <c r="B181" s="33"/>
       <c r="C181" s="33"/>
       <c r="D181" s="33"/>
       <c r="E181" s="33"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" ht="15.75" customHeight="1">
       <c r="A182" s="35"/>
       <c r="B182" s="36"/>
       <c r="C182" s="36"/>
       <c r="D182" s="36"/>
       <c r="E182" s="36"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1">
       <c r="A183" s="38"/>
       <c r="B183" s="39"/>
       <c r="C183" s="39"/>
       <c r="D183" s="33"/>
       <c r="E183" s="33"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" ht="15.75" customHeight="1">
       <c r="A184" s="35"/>
       <c r="B184" s="37"/>
       <c r="C184" s="37"/>
       <c r="D184" s="37"/>
       <c r="E184" s="37"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" ht="15.75" customHeight="1">
       <c r="A185" s="38"/>
       <c r="B185" s="39"/>
       <c r="C185" s="39"/>
       <c r="D185" s="33"/>
       <c r="E185" s="33"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1">
       <c r="A186" s="35"/>
       <c r="B186" s="37"/>
       <c r="C186" s="37"/>
       <c r="D186" s="37"/>
       <c r="E186" s="37"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" ht="15.75" customHeight="1">
       <c r="A187" s="38"/>
       <c r="B187" s="39"/>
       <c r="C187" s="39"/>
       <c r="D187" s="33"/>
       <c r="E187" s="33"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1">
       <c r="A188" s="38"/>
       <c r="B188" s="39"/>
       <c r="C188" s="33"/>
       <c r="D188" s="33"/>
       <c r="E188" s="33"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" ht="15.75" customHeight="1">
       <c r="A189" s="35"/>
       <c r="B189" s="36"/>
       <c r="C189" s="36"/>
       <c r="D189" s="36"/>
       <c r="E189" s="36"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" ht="15.75" customHeight="1">
       <c r="A190" s="38"/>
       <c r="B190" s="39"/>
       <c r="C190" s="39"/>
       <c r="D190" s="33"/>
       <c r="E190" s="33"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1">
       <c r="A191" s="35"/>
       <c r="B191" s="37"/>
       <c r="C191" s="37"/>
       <c r="D191" s="37"/>
       <c r="E191" s="37"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" ht="15.75" customHeight="1">
       <c r="A192" s="38"/>
       <c r="B192" s="39"/>
       <c r="C192" s="39"/>
       <c r="D192" s="33"/>
       <c r="E192" s="33"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" ht="15.75" customHeight="1">
       <c r="A193" s="35"/>
       <c r="B193" s="37"/>
       <c r="C193" s="37"/>
       <c r="D193" s="37"/>
       <c r="E193" s="37"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" ht="15.75" customHeight="1">
       <c r="A194" s="38"/>
       <c r="B194" s="39"/>
       <c r="C194" s="39"/>
       <c r="D194" s="33"/>
       <c r="E194" s="33"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" ht="15.75" customHeight="1">
       <c r="A195" s="35"/>
       <c r="B195" s="33"/>
       <c r="C195" s="33"/>
       <c r="D195" s="33"/>
       <c r="E195" s="33"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" ht="15.75" customHeight="1">
       <c r="A196" s="35"/>
       <c r="B196" s="36"/>
       <c r="C196" s="36"/>
       <c r="D196" s="36"/>
       <c r="E196" s="36"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" ht="15.75" customHeight="1">
       <c r="A197" s="38"/>
       <c r="B197" s="39"/>
       <c r="C197" s="39"/>
       <c r="D197" s="33"/>
       <c r="E197" s="33"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" ht="15.75" customHeight="1">
       <c r="A198" s="35"/>
       <c r="B198" s="37"/>
       <c r="C198" s="37"/>
       <c r="D198" s="37"/>
       <c r="E198" s="37"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" ht="15.75" customHeight="1">
       <c r="A199" s="38"/>
       <c r="B199" s="39"/>
       <c r="C199" s="39"/>
       <c r="D199" s="33"/>
       <c r="E199" s="33"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" ht="15.75" customHeight="1">
       <c r="A200" s="35"/>
       <c r="B200" s="37"/>
       <c r="C200" s="37"/>
       <c r="D200" s="37"/>
       <c r="E200" s="37"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" ht="15.75" customHeight="1">
       <c r="A201" s="38"/>
       <c r="B201" s="39"/>
       <c r="C201" s="39"/>
       <c r="D201" s="33"/>
       <c r="E201" s="33"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" ht="15.75" customHeight="1">
       <c r="A202" s="35"/>
       <c r="B202" s="33"/>
       <c r="C202" s="33"/>
       <c r="D202" s="33"/>
       <c r="E202" s="33"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" ht="15.75" customHeight="1">
       <c r="A203" s="35"/>
       <c r="B203" s="36"/>
       <c r="C203" s="36"/>
       <c r="D203" s="36"/>
       <c r="E203" s="36"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" ht="15.75" customHeight="1">
       <c r="A204" s="38"/>
       <c r="B204" s="39"/>
       <c r="C204" s="39"/>
       <c r="D204" s="33"/>
       <c r="E204" s="33"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" ht="15.75" customHeight="1">
       <c r="A205" s="35"/>
       <c r="B205" s="34"/>
       <c r="C205" s="37"/>
       <c r="D205" s="37"/>
       <c r="E205" s="37"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" ht="15.75" customHeight="1">
       <c r="A206" s="38"/>
       <c r="B206" s="39"/>
       <c r="C206" s="39"/>
       <c r="D206" s="33"/>
       <c r="E206" s="33"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" ht="15.75" customHeight="1">
       <c r="A207" s="35"/>
       <c r="B207" s="37"/>
       <c r="C207" s="37"/>
       <c r="D207" s="37"/>
       <c r="E207" s="37"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1">
       <c r="A208" s="38"/>
       <c r="B208" s="39"/>
       <c r="C208" s="39"/>
       <c r="D208" s="33"/>
       <c r="E208" s="33"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1">
       <c r="A209" s="38"/>
       <c r="B209" s="39"/>
       <c r="C209" s="33"/>
       <c r="D209" s="33"/>
       <c r="E209" s="33"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1">
       <c r="A210" s="35"/>
       <c r="B210" s="36"/>
       <c r="C210" s="36"/>
       <c r="D210" s="36"/>
       <c r="E210" s="36"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" ht="15.75" customHeight="1">
       <c r="A211" s="38"/>
       <c r="B211" s="39"/>
       <c r="C211" s="39"/>
       <c r="D211" s="33"/>
       <c r="E211" s="33"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1">
       <c r="A212" s="35"/>
       <c r="B212" s="34"/>
       <c r="C212" s="34"/>
       <c r="D212" s="34"/>
       <c r="E212" s="37"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1">
       <c r="A213" s="38"/>
       <c r="B213" s="39"/>
       <c r="C213" s="39"/>
       <c r="D213" s="33"/>
       <c r="E213" s="33"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1">
       <c r="A214" s="35"/>
       <c r="B214" s="37"/>
       <c r="C214" s="37"/>
       <c r="D214" s="37"/>
       <c r="E214" s="37"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" ht="15.75" customHeight="1">
       <c r="A215" s="38"/>
       <c r="B215" s="39"/>
       <c r="C215" s="39"/>
       <c r="D215" s="33"/>
       <c r="E215" s="33"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" ht="15.75" customHeight="1">
       <c r="A216" s="35"/>
       <c r="B216" s="33"/>
       <c r="C216" s="33"/>
       <c r="D216" s="33"/>
       <c r="E216" s="33"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" ht="15.75" customHeight="1">
       <c r="A217" s="35"/>
       <c r="B217" s="36"/>
       <c r="C217" s="36"/>
       <c r="D217" s="36"/>
       <c r="E217" s="36"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" ht="15.75" customHeight="1">
       <c r="A218" s="38"/>
       <c r="B218" s="39"/>
       <c r="C218" s="39"/>
       <c r="D218" s="33"/>
       <c r="E218" s="33"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" ht="15.75" customHeight="1">
       <c r="A219" s="35"/>
       <c r="B219" s="37"/>
       <c r="C219" s="37"/>
       <c r="D219" s="37"/>
       <c r="E219" s="37"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" ht="15.75" customHeight="1">
       <c r="A220" s="38"/>
       <c r="B220" s="39"/>
       <c r="C220" s="39"/>
       <c r="D220" s="33"/>
       <c r="E220" s="33"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" ht="15.75" customHeight="1">
       <c r="A221" s="35"/>
       <c r="B221" s="37"/>
       <c r="C221" s="37"/>
       <c r="D221" s="37"/>
       <c r="E221" s="37"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" ht="15.75" customHeight="1">
       <c r="A222" s="38"/>
       <c r="B222" s="39"/>
       <c r="C222" s="39"/>
       <c r="D222" s="33"/>
       <c r="E222" s="33"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" ht="15.75" customHeight="1">
       <c r="A223" s="35"/>
       <c r="B223" s="33"/>
       <c r="C223" s="33"/>
       <c r="D223" s="33"/>
       <c r="E223" s="33"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" ht="15.75" customHeight="1">
       <c r="A224" s="35"/>
       <c r="B224" s="36"/>
       <c r="C224" s="36"/>
       <c r="D224" s="36"/>
       <c r="E224" s="36"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" ht="15.75" customHeight="1">
       <c r="A225" s="38"/>
       <c r="B225" s="39"/>
       <c r="C225" s="39"/>
       <c r="D225" s="33"/>
       <c r="E225" s="33"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" ht="15.75" customHeight="1">
       <c r="A226" s="35"/>
       <c r="B226" s="37"/>
       <c r="C226" s="37"/>
       <c r="D226" s="37"/>
       <c r="E226" s="37"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" ht="15.75" customHeight="1">
       <c r="A227" s="38"/>
       <c r="B227" s="39"/>
       <c r="C227" s="39"/>
       <c r="D227" s="33"/>
       <c r="E227" s="33"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" ht="15.75" customHeight="1">
       <c r="A228" s="35"/>
       <c r="B228" s="37"/>
       <c r="C228" s="37"/>
       <c r="D228" s="37"/>
       <c r="E228" s="37"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" ht="15.75" customHeight="1">
       <c r="A229" s="38"/>
       <c r="B229" s="39"/>
       <c r="C229" s="39"/>
       <c r="D229" s="33"/>
       <c r="E229" s="33"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" ht="15.75" customHeight="1">
       <c r="A230" s="35"/>
       <c r="B230" s="33"/>
       <c r="C230" s="33"/>
       <c r="D230" s="33"/>
       <c r="E230" s="33"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" ht="15.75" customHeight="1">
       <c r="A231" s="35"/>
       <c r="B231" s="36"/>
       <c r="C231" s="36"/>
       <c r="D231" s="36"/>
       <c r="E231" s="36"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" ht="15.75" customHeight="1">
       <c r="A232" s="38"/>
       <c r="B232" s="39"/>
       <c r="C232" s="39"/>
       <c r="D232" s="33"/>
       <c r="E232" s="33"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" ht="15.75" customHeight="1">
       <c r="A233" s="35"/>
       <c r="B233" s="34"/>
       <c r="C233" s="34"/>
       <c r="D233" s="37"/>
       <c r="E233" s="37"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" ht="15.75" customHeight="1">
       <c r="A234" s="38"/>
       <c r="B234" s="39"/>
       <c r="C234" s="39"/>
       <c r="D234" s="33"/>
       <c r="E234" s="33"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" ht="15.75" customHeight="1">
       <c r="A235" s="35"/>
       <c r="B235" s="37"/>
       <c r="C235" s="37"/>
       <c r="D235" s="37"/>
       <c r="E235" s="37"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" ht="15.75" customHeight="1">
       <c r="A236" s="38"/>
       <c r="B236" s="39"/>
       <c r="C236" s="39"/>
       <c r="D236" s="33"/>
       <c r="E236" s="33"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" ht="15.75" customHeight="1">
       <c r="A237" s="35"/>
       <c r="B237" s="33"/>
       <c r="C237" s="33"/>
       <c r="D237" s="33"/>
       <c r="E237" s="33"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" ht="15.75" customHeight="1">
       <c r="A238" s="35"/>
       <c r="B238" s="36"/>
       <c r="C238" s="36"/>
       <c r="D238" s="36"/>
       <c r="E238" s="36"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" ht="15.75" customHeight="1">
       <c r="A239" s="38"/>
       <c r="B239" s="39"/>
       <c r="C239" s="39"/>
       <c r="D239" s="33"/>
       <c r="E239" s="33"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" ht="15.75" customHeight="1">
       <c r="A240" s="35"/>
       <c r="B240" s="37"/>
       <c r="C240" s="37"/>
       <c r="D240" s="37"/>
       <c r="E240" s="37"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" ht="15.75" customHeight="1">
       <c r="A241" s="38"/>
       <c r="B241" s="39"/>
       <c r="C241" s="39"/>
       <c r="D241" s="33"/>
       <c r="E241" s="33"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" ht="15.75" customHeight="1">
       <c r="A242" s="35"/>
       <c r="B242" s="37"/>
       <c r="C242" s="37"/>
       <c r="D242" s="37"/>
       <c r="E242" s="37"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" ht="15.75" customHeight="1">
       <c r="A243" s="38"/>
       <c r="B243" s="39"/>
       <c r="C243" s="39"/>
       <c r="D243" s="33"/>
       <c r="E243" s="33"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" ht="15.75" customHeight="1">
       <c r="A244" s="38"/>
       <c r="B244" s="39"/>
       <c r="C244" s="33"/>
       <c r="D244" s="33"/>
       <c r="E244" s="33"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" ht="15.75" customHeight="1">
       <c r="A245" s="35"/>
       <c r="B245" s="36"/>
       <c r="C245" s="36"/>
       <c r="D245" s="36"/>
       <c r="E245" s="36"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" ht="15.75" customHeight="1">
       <c r="A246" s="38"/>
       <c r="B246" s="39"/>
       <c r="C246" s="39"/>
       <c r="D246" s="33"/>
       <c r="E246" s="33"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" ht="15.75" customHeight="1">
       <c r="A247" s="35"/>
       <c r="B247" s="34"/>
       <c r="C247" s="34"/>
       <c r="D247" s="37"/>
       <c r="E247" s="37"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" ht="15.75" customHeight="1">
       <c r="A248" s="38"/>
       <c r="B248" s="39"/>
       <c r="C248" s="39"/>
       <c r="D248" s="33"/>
       <c r="E248" s="33"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" ht="15.75" customHeight="1">
       <c r="A249" s="35"/>
       <c r="B249" s="37"/>
       <c r="C249" s="37"/>
       <c r="D249" s="37"/>
       <c r="E249" s="37"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" ht="15.75" customHeight="1">
       <c r="A250" s="38"/>
       <c r="B250" s="39"/>
       <c r="C250" s="39"/>
       <c r="D250" s="33"/>
       <c r="E250" s="33"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" ht="15.75" customHeight="1">
       <c r="A251" s="38"/>
       <c r="B251" s="39"/>
       <c r="C251" s="33"/>
       <c r="D251" s="33"/>
       <c r="E251" s="33"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" ht="15.75" customHeight="1">
       <c r="A252" s="35"/>
       <c r="B252" s="36"/>
       <c r="C252" s="36"/>
       <c r="D252" s="36"/>
       <c r="E252" s="36"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" ht="15.75" customHeight="1">
       <c r="A253" s="38"/>
       <c r="B253" s="39"/>
       <c r="C253" s="39"/>
       <c r="D253" s="33"/>
       <c r="E253" s="33"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" ht="15.75" customHeight="1">
       <c r="A254" s="35"/>
       <c r="B254" s="37"/>
       <c r="C254" s="37"/>
       <c r="D254" s="37"/>
       <c r="E254" s="37"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" ht="15.75" customHeight="1">
       <c r="A255" s="38"/>
       <c r="B255" s="39"/>
       <c r="C255" s="39"/>
       <c r="D255" s="33"/>
       <c r="E255" s="33"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" ht="15.75" customHeight="1">
       <c r="A256" s="35"/>
       <c r="B256" s="37"/>
       <c r="C256" s="37"/>
       <c r="D256" s="37"/>
       <c r="E256" s="37"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" ht="15.75" customHeight="1">
       <c r="A257" s="38"/>
       <c r="B257" s="39"/>
       <c r="C257" s="39"/>
       <c r="D257" s="33"/>
       <c r="E257" s="33"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" ht="15.75" customHeight="1">
       <c r="A258" s="35"/>
       <c r="B258" s="33"/>
       <c r="C258" s="33"/>
       <c r="D258" s="33"/>
       <c r="E258" s="33"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" ht="15.75" customHeight="1">
       <c r="A259" s="35"/>
       <c r="B259" s="36"/>
       <c r="C259" s="36"/>
       <c r="D259" s="36"/>
       <c r="E259" s="36"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" ht="15.75" customHeight="1">
       <c r="A260" s="38"/>
       <c r="B260" s="39"/>
       <c r="C260" s="39"/>
       <c r="D260" s="33"/>
       <c r="E260" s="33"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" ht="15.75" customHeight="1">
       <c r="A261" s="35"/>
       <c r="B261" s="37"/>
       <c r="C261" s="37"/>
       <c r="D261" s="37"/>
       <c r="E261" s="37"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" ht="15.75" customHeight="1">
       <c r="A262" s="38"/>
       <c r="B262" s="39"/>
       <c r="C262" s="39"/>
       <c r="D262" s="33"/>
       <c r="E262" s="33"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" ht="15.75" customHeight="1">
       <c r="A263" s="35"/>
       <c r="B263" s="37"/>
       <c r="C263" s="37"/>
       <c r="D263" s="37"/>
       <c r="E263" s="37"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" ht="15.75" customHeight="1">
       <c r="A264" s="38"/>
       <c r="B264" s="39"/>
       <c r="C264" s="39"/>
       <c r="D264" s="33"/>
       <c r="E264" s="33"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" ht="15.75" customHeight="1">
       <c r="A265" s="35"/>
       <c r="B265" s="33"/>
       <c r="C265" s="33"/>
       <c r="D265" s="33"/>
       <c r="E265" s="33"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" ht="15.75" customHeight="1">
       <c r="A266" s="35"/>
       <c r="B266" s="36"/>
       <c r="C266" s="36"/>
       <c r="D266" s="36"/>
       <c r="E266" s="36"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" ht="15.75" customHeight="1">
       <c r="A267" s="38"/>
       <c r="B267" s="39"/>
       <c r="C267" s="39"/>
       <c r="D267" s="33"/>
       <c r="E267" s="33"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" ht="15.75" customHeight="1">
       <c r="A268" s="35"/>
       <c r="B268" s="34"/>
       <c r="C268" s="34"/>
       <c r="D268" s="37"/>
       <c r="E268" s="37"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" ht="15.75" customHeight="1">
       <c r="A269" s="38"/>
       <c r="B269" s="39"/>
       <c r="C269" s="39"/>
       <c r="D269" s="33"/>
       <c r="E269" s="33"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" ht="15.75" customHeight="1">
       <c r="A270" s="35"/>
       <c r="B270" s="37"/>
       <c r="C270" s="37"/>
       <c r="D270" s="37"/>
       <c r="E270" s="37"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" ht="15.75" customHeight="1">
       <c r="A271" s="38"/>
       <c r="B271" s="39"/>
       <c r="C271" s="39"/>
       <c r="D271" s="33"/>
       <c r="E271" s="33"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" ht="15.75" customHeight="1">
       <c r="A272" s="38"/>
       <c r="B272" s="39"/>
       <c r="C272" s="33"/>
       <c r="D272" s="33"/>
       <c r="E272" s="33"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" ht="15.75" customHeight="1">
       <c r="A273" s="35"/>
       <c r="B273" s="36"/>
       <c r="C273" s="36"/>
       <c r="D273" s="36"/>
       <c r="E273" s="36"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" ht="15.75" customHeight="1">
       <c r="A274" s="38"/>
       <c r="B274" s="39"/>
       <c r="C274" s="39"/>
       <c r="D274" s="33"/>
       <c r="E274" s="33"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" ht="15.75" customHeight="1">
       <c r="A275" s="35"/>
       <c r="B275" s="34"/>
       <c r="C275" s="34"/>
       <c r="D275" s="37"/>
       <c r="E275" s="37"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" ht="15.75" customHeight="1">
       <c r="A276" s="38"/>
       <c r="B276" s="39"/>
       <c r="C276" s="39"/>
       <c r="D276" s="33"/>
       <c r="E276" s="33"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" ht="15.75" customHeight="1">
       <c r="A277" s="35"/>
       <c r="B277" s="34"/>
       <c r="C277" s="37"/>
       <c r="D277" s="37"/>
       <c r="E277" s="37"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" ht="15.75" customHeight="1">
       <c r="A278" s="38"/>
       <c r="B278" s="39"/>
       <c r="C278" s="39"/>
       <c r="D278" s="33"/>
       <c r="E278" s="33"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" ht="15.75" customHeight="1">
       <c r="A279" s="38"/>
       <c r="B279" s="39"/>
       <c r="C279" s="33"/>
       <c r="D279" s="33"/>
       <c r="E279" s="33"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" ht="15.75" customHeight="1">
       <c r="A280" s="35"/>
       <c r="B280" s="36"/>
       <c r="C280" s="36"/>
       <c r="D280" s="36"/>
       <c r="E280" s="36"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" ht="15.75" customHeight="1">
       <c r="A281" s="38"/>
       <c r="B281" s="39"/>
       <c r="C281" s="39"/>
       <c r="D281" s="33"/>
       <c r="E281" s="33"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" ht="15.75" customHeight="1">
       <c r="A282" s="35"/>
       <c r="B282" s="34"/>
       <c r="C282" s="34"/>
       <c r="D282" s="37"/>
       <c r="E282" s="37"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" ht="15.75" customHeight="1">
       <c r="A283" s="38"/>
       <c r="B283" s="39"/>
       <c r="C283" s="39"/>
       <c r="D283" s="33"/>
       <c r="E283" s="33"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" ht="15.75" customHeight="1">
       <c r="A284" s="35"/>
       <c r="B284" s="37"/>
       <c r="C284" s="37"/>
       <c r="D284" s="37"/>
       <c r="E284" s="37"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" ht="15.75" customHeight="1">
       <c r="A285" s="38"/>
       <c r="B285" s="39"/>
       <c r="C285" s="39"/>
       <c r="D285" s="33"/>
       <c r="E285" s="33"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" ht="15.75" customHeight="1">
       <c r="A286" s="38"/>
       <c r="B286" s="39"/>
       <c r="C286" s="33"/>
       <c r="D286" s="33"/>
       <c r="E286" s="33"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" ht="15.75" customHeight="1">
       <c r="A287" s="35"/>
       <c r="B287" s="36"/>
       <c r="C287" s="36"/>
       <c r="D287" s="36"/>
       <c r="E287" s="36"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" ht="15.75" customHeight="1">
       <c r="A288" s="38"/>
       <c r="B288" s="39"/>
       <c r="C288" s="39"/>
       <c r="D288" s="33"/>
       <c r="E288" s="33"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" ht="15.75" customHeight="1">
       <c r="A289" s="35"/>
       <c r="B289" s="34"/>
       <c r="C289" s="34"/>
       <c r="D289" s="37"/>
       <c r="E289" s="37"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" ht="15.75" customHeight="1">
       <c r="A290" s="38"/>
       <c r="B290" s="39"/>
       <c r="C290" s="39"/>
       <c r="D290" s="33"/>
       <c r="E290" s="33"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" ht="15.75" customHeight="1">
       <c r="A291" s="35"/>
       <c r="B291" s="37"/>
       <c r="C291" s="37"/>
       <c r="D291" s="37"/>
       <c r="E291" s="37"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" ht="15.75" customHeight="1">
       <c r="A292" s="38"/>
       <c r="B292" s="39"/>
       <c r="C292" s="39"/>
       <c r="D292" s="33"/>
       <c r="E292" s="33"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" ht="15.75" customHeight="1">
       <c r="A293" s="35"/>
       <c r="B293" s="33"/>
       <c r="C293" s="33"/>
       <c r="D293" s="33"/>
       <c r="E293" s="33"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" ht="15.75" customHeight="1">
       <c r="A294" s="35"/>
       <c r="B294" s="36"/>
       <c r="C294" s="36"/>
       <c r="D294" s="36"/>
       <c r="E294" s="36"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" ht="15.75" customHeight="1">
       <c r="A295" s="38"/>
       <c r="B295" s="39"/>
       <c r="C295" s="39"/>
       <c r="D295" s="33"/>
       <c r="E295" s="33"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" ht="15.75" customHeight="1">
       <c r="A296" s="35"/>
       <c r="B296" s="37"/>
       <c r="C296" s="34"/>
       <c r="D296" s="37"/>
       <c r="E296" s="37"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" ht="15.75" customHeight="1">
       <c r="A297" s="38"/>
       <c r="B297" s="39"/>
       <c r="C297" s="39"/>
       <c r="D297" s="33"/>
       <c r="E297" s="33"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" ht="15.75" customHeight="1">
       <c r="A298" s="35"/>
       <c r="B298" s="37"/>
       <c r="C298" s="37"/>
       <c r="D298" s="37"/>
       <c r="E298" s="37"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" ht="15.75" customHeight="1">
       <c r="A299" s="38"/>
       <c r="B299" s="39"/>
       <c r="C299" s="39"/>
       <c r="D299" s="33"/>
       <c r="E299" s="33"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" ht="15.75" customHeight="1">
       <c r="A300" s="35"/>
       <c r="B300" s="33"/>
       <c r="C300" s="33"/>
       <c r="D300" s="33"/>
       <c r="E300" s="33"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" ht="15.75" customHeight="1">
       <c r="A301" s="35"/>
       <c r="B301" s="36"/>
       <c r="C301" s="36"/>
       <c r="D301" s="36"/>
       <c r="E301" s="36"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" ht="15.75" customHeight="1">
       <c r="A302" s="38"/>
       <c r="B302" s="39"/>
       <c r="C302" s="39"/>
       <c r="D302" s="33"/>
       <c r="E302" s="33"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" ht="15.75" customHeight="1">
       <c r="A303" s="35"/>
       <c r="B303" s="37"/>
       <c r="C303" s="37"/>
       <c r="D303" s="37"/>
       <c r="E303" s="37"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" ht="15.75" customHeight="1">
       <c r="A304" s="38"/>
       <c r="B304" s="39"/>
       <c r="C304" s="39"/>
       <c r="D304" s="33"/>
       <c r="E304" s="33"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" ht="15.75" customHeight="1">
       <c r="A305" s="35"/>
       <c r="B305" s="37"/>
       <c r="C305" s="37"/>
       <c r="D305" s="37"/>
       <c r="E305" s="37"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" ht="15.75" customHeight="1">
       <c r="A306" s="38"/>
       <c r="B306" s="39"/>
       <c r="C306" s="39"/>
       <c r="D306" s="33"/>
       <c r="E306" s="33"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" ht="15.75" customHeight="1">
       <c r="A307" s="35"/>
       <c r="B307" s="33"/>
       <c r="C307" s="33"/>
       <c r="D307" s="33"/>
       <c r="E307" s="33"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" ht="15.75" customHeight="1">
       <c r="A308" s="38"/>
       <c r="B308" s="39"/>
       <c r="C308" s="36"/>
       <c r="D308" s="36"/>
       <c r="E308" s="36"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" ht="15.75" customHeight="1">
       <c r="A309" s="38"/>
       <c r="B309" s="39"/>
       <c r="C309" s="39"/>
       <c r="D309" s="33"/>
       <c r="E309" s="33"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" ht="15.75" customHeight="1">
       <c r="A310" s="38"/>
       <c r="B310" s="39"/>
       <c r="C310" s="34"/>
       <c r="D310" s="37"/>
       <c r="E310" s="37"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" ht="15.75" customHeight="1">
       <c r="A311" s="38"/>
       <c r="B311" s="39"/>
       <c r="C311" s="39"/>
       <c r="D311" s="33"/>
       <c r="E311" s="33"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" ht="15.75" customHeight="1">
       <c r="A312" s="38"/>
       <c r="B312" s="39"/>
       <c r="C312" s="37"/>
       <c r="D312" s="37"/>
       <c r="E312" s="37"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" ht="15.75" customHeight="1">
       <c r="A313" s="38"/>
       <c r="B313" s="39"/>
       <c r="C313" s="39"/>
       <c r="D313" s="33"/>
       <c r="E313" s="33"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" ht="15.75" customHeight="1">
       <c r="A314" s="35"/>
       <c r="B314" s="33"/>
       <c r="C314" s="33"/>
       <c r="D314" s="33"/>
       <c r="E314" s="33"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" ht="15.75" customHeight="1">
       <c r="A315" s="35"/>
       <c r="B315" s="36"/>
       <c r="C315" s="36"/>
       <c r="D315" s="36"/>
       <c r="E315" s="36"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" ht="15.75" customHeight="1">
       <c r="A316" s="38"/>
       <c r="B316" s="39"/>
       <c r="C316" s="39"/>
       <c r="D316" s="33"/>
       <c r="E316" s="33"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" ht="15.75" customHeight="1">
       <c r="A317" s="35"/>
       <c r="B317" s="37"/>
       <c r="C317" s="37"/>
       <c r="D317" s="37"/>
       <c r="E317" s="37"/>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" ht="15.75" customHeight="1">
       <c r="A318" s="38"/>
       <c r="B318" s="39"/>
       <c r="C318" s="39"/>
       <c r="D318" s="33"/>
       <c r="E318" s="33"/>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" ht="15.75" customHeight="1">
       <c r="A319" s="35"/>
       <c r="B319" s="37"/>
       <c r="C319" s="37"/>
       <c r="D319" s="37"/>
       <c r="E319" s="37"/>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" ht="15.75" customHeight="1">
       <c r="A320" s="38"/>
       <c r="B320" s="39"/>
       <c r="C320" s="39"/>
       <c r="D320" s="33"/>
       <c r="E320" s="33"/>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" ht="15.75" customHeight="1">
       <c r="A321" s="35"/>
       <c r="B321" s="33"/>
       <c r="C321" s="33"/>
       <c r="D321" s="33"/>
       <c r="E321" s="33"/>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" ht="15.75" customHeight="1">
       <c r="A322" s="35"/>
       <c r="B322" s="36"/>
       <c r="C322" s="36"/>
       <c r="D322" s="36"/>
       <c r="E322" s="36"/>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" ht="15.75" customHeight="1">
       <c r="A323" s="38"/>
       <c r="B323" s="39"/>
       <c r="C323" s="39"/>
       <c r="D323" s="33"/>
       <c r="E323" s="33"/>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" ht="15.75" customHeight="1">
       <c r="A324" s="35"/>
       <c r="B324" s="37"/>
       <c r="C324" s="37"/>
       <c r="D324" s="37"/>
       <c r="E324" s="37"/>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" ht="15.75" customHeight="1">
       <c r="A325" s="38"/>
       <c r="B325" s="39"/>
       <c r="C325" s="39"/>
       <c r="D325" s="33"/>
       <c r="E325" s="33"/>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" ht="15.75" customHeight="1">
       <c r="A326" s="35"/>
       <c r="B326" s="37"/>
       <c r="C326" s="37"/>
       <c r="D326" s="37"/>
       <c r="E326" s="37"/>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" ht="15.75" customHeight="1">
       <c r="A327" s="38"/>
       <c r="B327" s="39"/>
       <c r="C327" s="39"/>
       <c r="D327" s="33"/>
       <c r="E327" s="33"/>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" ht="15.75" customHeight="1">
       <c r="A328" s="35"/>
       <c r="B328" s="33"/>
       <c r="C328" s="33"/>
       <c r="D328" s="33"/>
       <c r="E328" s="33"/>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" ht="15.75" customHeight="1">
       <c r="A329" s="35"/>
       <c r="B329" s="36"/>
       <c r="C329" s="36"/>
       <c r="D329" s="36"/>
       <c r="E329" s="36"/>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" ht="15.75" customHeight="1">
       <c r="A330" s="38"/>
       <c r="B330" s="39"/>
       <c r="C330" s="39"/>
       <c r="D330" s="33"/>
       <c r="E330" s="33"/>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" ht="15.75" customHeight="1">
       <c r="A331" s="35"/>
       <c r="B331" s="34"/>
       <c r="C331" s="37"/>
       <c r="D331" s="37"/>
       <c r="E331" s="37"/>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" ht="15.75" customHeight="1">
       <c r="A332" s="38"/>
       <c r="B332" s="39"/>
       <c r="C332" s="39"/>
       <c r="D332" s="33"/>
       <c r="E332" s="33"/>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" ht="15.75" customHeight="1">
       <c r="A333" s="35"/>
       <c r="B333" s="37"/>
       <c r="C333" s="37"/>
       <c r="D333" s="37"/>
       <c r="E333" s="37"/>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" ht="15.75" customHeight="1">
       <c r="A334" s="38"/>
       <c r="B334" s="39"/>
       <c r="C334" s="39"/>
       <c r="D334" s="33"/>
       <c r="E334" s="33"/>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" ht="15.75" customHeight="1">
       <c r="A335" s="35"/>
       <c r="B335" s="33"/>
       <c r="C335" s="33"/>
       <c r="D335" s="33"/>
       <c r="E335" s="33"/>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" ht="15.75" customHeight="1">
       <c r="A336" s="35"/>
       <c r="B336" s="36"/>
       <c r="C336" s="36"/>
       <c r="D336" s="36"/>
       <c r="E336" s="36"/>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" ht="15.75" customHeight="1">
       <c r="A337" s="38"/>
       <c r="B337" s="39"/>
       <c r="C337" s="39"/>
       <c r="D337" s="33"/>
       <c r="E337" s="33"/>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" ht="15.75" customHeight="1">
       <c r="A338" s="35"/>
       <c r="B338" s="34"/>
       <c r="C338" s="37"/>
       <c r="D338" s="37"/>
       <c r="E338" s="37"/>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" ht="15.75" customHeight="1">
       <c r="A339" s="38"/>
       <c r="B339" s="39"/>
       <c r="C339" s="39"/>
       <c r="D339" s="33"/>
       <c r="E339" s="33"/>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" ht="15.75" customHeight="1">
       <c r="A340" s="35"/>
       <c r="B340" s="37"/>
       <c r="C340" s="37"/>
       <c r="D340" s="37"/>
       <c r="E340" s="37"/>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" ht="15.75" customHeight="1">
       <c r="A341" s="38"/>
       <c r="B341" s="39"/>
       <c r="C341" s="39"/>
       <c r="D341" s="33"/>
       <c r="E341" s="33"/>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" ht="15.75" customHeight="1">
       <c r="A342" s="35"/>
       <c r="B342" s="33"/>
       <c r="C342" s="33"/>
       <c r="D342" s="33"/>
       <c r="E342" s="33"/>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" ht="15.75" customHeight="1">
       <c r="A343" s="35"/>
       <c r="B343" s="36"/>
       <c r="C343" s="36"/>
       <c r="D343" s="36"/>
       <c r="E343" s="36"/>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" ht="15.75" customHeight="1">
       <c r="A344" s="38"/>
       <c r="B344" s="39"/>
       <c r="C344" s="39"/>
       <c r="D344" s="33"/>
       <c r="E344" s="33"/>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" ht="15.75" customHeight="1">
       <c r="A345" s="35"/>
       <c r="B345" s="37"/>
       <c r="C345" s="37"/>
       <c r="D345" s="37"/>
       <c r="E345" s="37"/>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" ht="15.75" customHeight="1">
       <c r="A346" s="38"/>
       <c r="B346" s="39"/>
       <c r="C346" s="39"/>
       <c r="D346" s="33"/>
       <c r="E346" s="33"/>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" ht="15.75" customHeight="1">
       <c r="A347" s="35"/>
       <c r="B347" s="37"/>
       <c r="C347" s="37"/>
       <c r="D347" s="37"/>
       <c r="E347" s="37"/>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" ht="15.75" customHeight="1">
       <c r="A348" s="38"/>
       <c r="B348" s="39"/>
       <c r="C348" s="39"/>
       <c r="D348" s="33"/>
       <c r="E348" s="33"/>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" ht="15.75" customHeight="1">
       <c r="A349" s="35"/>
       <c r="B349" s="33"/>
       <c r="C349" s="33"/>
       <c r="D349" s="33"/>
       <c r="E349" s="33"/>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" ht="15.75" customHeight="1">
       <c r="A350" s="35"/>
       <c r="B350" s="36"/>
       <c r="C350" s="36"/>
       <c r="D350" s="36"/>
       <c r="E350" s="36"/>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" ht="15.75" customHeight="1">
       <c r="A351" s="38"/>
       <c r="B351" s="39"/>
       <c r="C351" s="39"/>
       <c r="D351" s="33"/>
       <c r="E351" s="33"/>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" ht="15.75" customHeight="1">
       <c r="A352" s="35"/>
       <c r="B352" s="37"/>
       <c r="C352" s="37"/>
       <c r="D352" s="37"/>
       <c r="E352" s="37"/>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" ht="15.75" customHeight="1">
       <c r="A353" s="38"/>
       <c r="B353" s="39"/>
       <c r="C353" s="39"/>
       <c r="D353" s="33"/>
       <c r="E353" s="33"/>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" ht="15.75" customHeight="1">
       <c r="A354" s="35"/>
       <c r="B354" s="37"/>
       <c r="C354" s="37"/>
       <c r="D354" s="37"/>
       <c r="E354" s="37"/>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" ht="15.75" customHeight="1">
       <c r="A355" s="38"/>
       <c r="B355" s="39"/>
       <c r="C355" s="39"/>
       <c r="D355" s="33"/>
       <c r="E355" s="33"/>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" ht="15.75" customHeight="1">
       <c r="A356" s="35"/>
       <c r="B356" s="33"/>
       <c r="C356" s="33"/>
       <c r="D356" s="33"/>
       <c r="E356" s="33"/>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" ht="15.75" customHeight="1">
       <c r="A357" s="35"/>
       <c r="B357" s="36"/>
       <c r="C357" s="36"/>
       <c r="D357" s="36"/>
       <c r="E357" s="36"/>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" ht="15.75" customHeight="1">
       <c r="A358" s="38"/>
       <c r="B358" s="39"/>
       <c r="C358" s="39"/>
       <c r="D358" s="33"/>
       <c r="E358" s="33"/>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" ht="15.75" customHeight="1">
       <c r="A359" s="35"/>
       <c r="B359" s="37"/>
       <c r="C359" s="37"/>
       <c r="D359" s="37"/>
       <c r="E359" s="37"/>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" ht="15.75" customHeight="1">
       <c r="A360" s="38"/>
       <c r="B360" s="39"/>
       <c r="C360" s="39"/>
       <c r="D360" s="33"/>
       <c r="E360" s="33"/>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" ht="15.75" customHeight="1">
       <c r="A361" s="35"/>
       <c r="B361" s="37"/>
       <c r="C361" s="37"/>
       <c r="D361" s="37"/>
       <c r="E361" s="37"/>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" ht="15.75" customHeight="1">
       <c r="A362" s="38"/>
       <c r="B362" s="39"/>
       <c r="C362" s="39"/>
       <c r="D362" s="33"/>
       <c r="E362" s="33"/>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" ht="15.75" customHeight="1">
       <c r="A363" s="35"/>
       <c r="B363" s="33"/>
       <c r="C363" s="33"/>
       <c r="D363" s="33"/>
       <c r="E363" s="33"/>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" ht="15.75" customHeight="1">
       <c r="A364" s="35"/>
       <c r="B364" s="36"/>
       <c r="C364" s="36"/>
       <c r="D364" s="36"/>
       <c r="E364" s="36"/>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" ht="15.75" customHeight="1">
       <c r="A365" s="38"/>
       <c r="B365" s="39"/>
       <c r="C365" s="39"/>
       <c r="D365" s="33"/>
       <c r="E365" s="33"/>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" ht="15.75" customHeight="1">
       <c r="A366" s="35"/>
       <c r="B366" s="37"/>
       <c r="C366" s="37"/>
       <c r="D366" s="37"/>
       <c r="E366" s="37"/>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" ht="15.75" customHeight="1">
       <c r="A367" s="38"/>
       <c r="B367" s="39"/>
       <c r="C367" s="39"/>
       <c r="D367" s="33"/>
       <c r="E367" s="33"/>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" ht="15.75" customHeight="1">
       <c r="A368" s="35"/>
       <c r="B368" s="37"/>
       <c r="C368" s="37"/>
       <c r="D368" s="37"/>
       <c r="E368" s="37"/>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" ht="15.75" customHeight="1">
       <c r="A369" s="38"/>
       <c r="B369" s="39"/>
       <c r="C369" s="39"/>
       <c r="D369" s="33"/>
       <c r="E369" s="33"/>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" ht="15.75" customHeight="1">
       <c r="A370" s="35"/>
       <c r="B370" s="33"/>
       <c r="C370" s="33"/>
       <c r="D370" s="33"/>
       <c r="E370" s="33"/>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" ht="15.75" customHeight="1">
       <c r="A371" s="35"/>
       <c r="B371" s="36"/>
       <c r="C371" s="36"/>
       <c r="D371" s="36"/>
       <c r="E371" s="36"/>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" ht="15.75" customHeight="1">
       <c r="A372" s="38"/>
       <c r="B372" s="39"/>
       <c r="C372" s="39"/>
       <c r="D372" s="33"/>
       <c r="E372" s="33"/>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" ht="15.75" customHeight="1">
       <c r="A373" s="35"/>
       <c r="B373" s="34"/>
       <c r="C373" s="34"/>
       <c r="D373" s="34"/>
       <c r="E373" s="34"/>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" ht="15.75" customHeight="1">
       <c r="A374" s="38"/>
       <c r="B374" s="39"/>
       <c r="C374" s="39"/>
       <c r="D374" s="33"/>
       <c r="E374" s="33"/>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" ht="15.75" customHeight="1">
       <c r="A375" s="35"/>
       <c r="B375" s="34"/>
       <c r="C375" s="37"/>
       <c r="D375" s="37"/>
       <c r="E375" s="37"/>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" ht="15.75" customHeight="1">
       <c r="A376" s="38"/>
       <c r="B376" s="39"/>
       <c r="C376" s="39"/>
       <c r="D376" s="33"/>
       <c r="E376" s="33"/>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" ht="15.75" customHeight="1">
       <c r="A377" s="35"/>
       <c r="B377" s="33"/>
       <c r="C377" s="33"/>
       <c r="D377" s="33"/>
       <c r="E377" s="33"/>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" ht="15.75" customHeight="1">
       <c r="A378" s="35"/>
       <c r="B378" s="36"/>
       <c r="C378" s="36"/>
       <c r="D378" s="36"/>
       <c r="E378" s="36"/>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" ht="15.75" customHeight="1">
       <c r="A379" s="38"/>
       <c r="B379" s="39"/>
       <c r="C379" s="39"/>
       <c r="D379" s="33"/>
       <c r="E379" s="33"/>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" ht="15.75" customHeight="1">
       <c r="A380" s="35"/>
       <c r="B380" s="34"/>
       <c r="C380" s="34"/>
       <c r="D380" s="37"/>
       <c r="E380" s="37"/>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" ht="15.75" customHeight="1">
       <c r="A381" s="38"/>
       <c r="B381" s="39"/>
       <c r="C381" s="39"/>
       <c r="D381" s="33"/>
       <c r="E381" s="33"/>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" ht="15.75" customHeight="1">
       <c r="A382" s="35"/>
       <c r="B382" s="37"/>
       <c r="C382" s="37"/>
       <c r="D382" s="37"/>
       <c r="E382" s="37"/>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" ht="15.75" customHeight="1">
       <c r="A383" s="38"/>
       <c r="B383" s="39"/>
       <c r="C383" s="39"/>
       <c r="D383" s="33"/>
       <c r="E383" s="33"/>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" ht="15.75" customHeight="1">
       <c r="A384" s="35"/>
       <c r="B384" s="33"/>
       <c r="C384" s="33"/>
       <c r="D384" s="33"/>
       <c r="E384" s="33"/>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" ht="15.75" customHeight="1">
       <c r="A385" s="35"/>
       <c r="B385" s="36"/>
       <c r="C385" s="36"/>
       <c r="D385" s="36"/>
       <c r="E385" s="36"/>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" ht="15.75" customHeight="1">
       <c r="A386" s="38"/>
       <c r="B386" s="39"/>
       <c r="C386" s="39"/>
       <c r="D386" s="33"/>
       <c r="E386" s="33"/>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" ht="15.75" customHeight="1">
       <c r="A387" s="35"/>
       <c r="B387" s="37"/>
       <c r="C387" s="37"/>
       <c r="D387" s="37"/>
       <c r="E387" s="37"/>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" ht="15.75" customHeight="1">
       <c r="A388" s="38"/>
       <c r="B388" s="39"/>
       <c r="C388" s="39"/>
       <c r="D388" s="33"/>
       <c r="E388" s="33"/>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" ht="15.75" customHeight="1">
       <c r="A389" s="35"/>
       <c r="B389" s="37"/>
       <c r="C389" s="37"/>
       <c r="D389" s="37"/>
       <c r="E389" s="37"/>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" ht="15.75" customHeight="1">
       <c r="A390" s="38"/>
       <c r="B390" s="39"/>
       <c r="C390" s="39"/>
       <c r="D390" s="33"/>
       <c r="E390" s="33"/>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" ht="15.75" customHeight="1">
       <c r="A391" s="35"/>
       <c r="B391" s="33"/>
       <c r="C391" s="33"/>
       <c r="D391" s="33"/>
       <c r="E391" s="33"/>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" ht="15.75" customHeight="1">
       <c r="A392" s="35"/>
       <c r="B392" s="36"/>
       <c r="C392" s="36"/>
       <c r="D392" s="36"/>
       <c r="E392" s="36"/>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" ht="15.75" customHeight="1">
       <c r="A393" s="38"/>
       <c r="B393" s="39"/>
       <c r="C393" s="39"/>
       <c r="D393" s="33"/>
       <c r="E393" s="33"/>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" ht="15.75" customHeight="1">
       <c r="A394" s="35"/>
       <c r="B394" s="34"/>
       <c r="C394" s="34"/>
       <c r="D394" s="37"/>
       <c r="E394" s="37"/>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" ht="15.75" customHeight="1">
       <c r="A395" s="38"/>
       <c r="B395" s="39"/>
       <c r="C395" s="39"/>
       <c r="D395" s="33"/>
       <c r="E395" s="33"/>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" ht="15.75" customHeight="1">
       <c r="A396" s="35"/>
       <c r="B396" s="37"/>
       <c r="C396" s="37"/>
       <c r="D396" s="37"/>
       <c r="E396" s="37"/>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" ht="15.75" customHeight="1">
       <c r="A397" s="38"/>
       <c r="B397" s="39"/>
       <c r="C397" s="39"/>
       <c r="D397" s="33"/>
       <c r="E397" s="33"/>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" ht="15.75" customHeight="1">
       <c r="A398" s="35"/>
       <c r="B398" s="33"/>
       <c r="C398" s="33"/>
       <c r="D398" s="33"/>
       <c r="E398" s="33"/>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" ht="15.75" customHeight="1">
       <c r="A399" s="35"/>
       <c r="B399" s="36"/>
       <c r="C399" s="36"/>
       <c r="D399" s="36"/>
       <c r="E399" s="36"/>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" ht="15.75" customHeight="1">
       <c r="A400" s="38"/>
       <c r="B400" s="39"/>
       <c r="C400" s="39"/>
       <c r="D400" s="33"/>
       <c r="E400" s="33"/>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" ht="15.75" customHeight="1">
       <c r="A401" s="35"/>
       <c r="B401" s="34"/>
       <c r="C401" s="34"/>
       <c r="D401" s="37"/>
       <c r="E401" s="37"/>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" ht="15.75" customHeight="1">
       <c r="A402" s="38"/>
       <c r="B402" s="39"/>
       <c r="C402" s="39"/>
       <c r="D402" s="33"/>
       <c r="E402" s="33"/>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" ht="15.75" customHeight="1">
       <c r="A403" s="35"/>
       <c r="B403" s="37"/>
       <c r="C403" s="37"/>
       <c r="D403" s="37"/>
       <c r="E403" s="37"/>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" ht="15.75" customHeight="1">
       <c r="A404" s="38"/>
       <c r="B404" s="39"/>
       <c r="C404" s="39"/>
       <c r="D404" s="33"/>
       <c r="E404" s="33"/>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" ht="15.75" customHeight="1">
       <c r="A405" s="35"/>
       <c r="B405" s="33"/>
       <c r="C405" s="33"/>
       <c r="D405" s="33"/>
       <c r="E405" s="33"/>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" ht="15.75" customHeight="1">
       <c r="A406" s="35"/>
       <c r="B406" s="36"/>
       <c r="C406" s="36"/>
       <c r="D406" s="36"/>
       <c r="E406" s="36"/>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" ht="15.75" customHeight="1">
       <c r="A407" s="38"/>
       <c r="B407" s="39"/>
       <c r="C407" s="39"/>
       <c r="D407" s="33"/>
       <c r="E407" s="33"/>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" ht="15.75" customHeight="1">
       <c r="A408" s="35"/>
       <c r="B408" s="34"/>
       <c r="C408" s="37"/>
       <c r="D408" s="37"/>
       <c r="E408" s="37"/>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" ht="15.75" customHeight="1">
       <c r="A409" s="38"/>
       <c r="B409" s="39"/>
       <c r="C409" s="39"/>
       <c r="D409" s="33"/>
       <c r="E409" s="33"/>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" ht="15.75" customHeight="1">
       <c r="A410" s="35"/>
       <c r="B410" s="37"/>
       <c r="C410" s="37"/>
       <c r="D410" s="37"/>
       <c r="E410" s="37"/>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" ht="15.75" customHeight="1">
       <c r="A411" s="38"/>
       <c r="B411" s="39"/>
       <c r="C411" s="39"/>
       <c r="D411" s="33"/>
       <c r="E411" s="33"/>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" ht="15.75" customHeight="1">
       <c r="A412" s="35"/>
       <c r="B412" s="33"/>
       <c r="C412" s="33"/>
       <c r="D412" s="33"/>
       <c r="E412" s="33"/>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" ht="15.75" customHeight="1">
       <c r="A413" s="35"/>
       <c r="B413" s="36"/>
       <c r="C413" s="36"/>
       <c r="D413" s="36"/>
       <c r="E413" s="36"/>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" ht="15.75" customHeight="1">
       <c r="A414" s="38"/>
       <c r="B414" s="39"/>
       <c r="C414" s="39"/>
       <c r="D414" s="33"/>
       <c r="E414" s="33"/>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" ht="15.75" customHeight="1">
       <c r="A415" s="35"/>
       <c r="B415" s="34"/>
       <c r="C415" s="37"/>
       <c r="D415" s="37"/>
       <c r="E415" s="37"/>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" ht="15.75" customHeight="1">
       <c r="A416" s="38"/>
       <c r="B416" s="39"/>
       <c r="C416" s="39"/>
       <c r="D416" s="33"/>
       <c r="E416" s="33"/>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" ht="15.75" customHeight="1">
       <c r="A417" s="35"/>
       <c r="B417" s="37"/>
       <c r="C417" s="37"/>
       <c r="D417" s="37"/>
       <c r="E417" s="37"/>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" ht="15.75" customHeight="1">
       <c r="A418" s="38"/>
       <c r="B418" s="39"/>
       <c r="C418" s="39"/>
       <c r="D418" s="33"/>
       <c r="E418" s="33"/>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" ht="15.75" customHeight="1">
       <c r="A419" s="35"/>
       <c r="B419" s="33"/>
       <c r="C419" s="33"/>
       <c r="D419" s="33"/>
       <c r="E419" s="33"/>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" ht="15.75" customHeight="1">
       <c r="A420" s="35"/>
       <c r="B420" s="36"/>
       <c r="C420" s="36"/>
       <c r="D420" s="36"/>
       <c r="E420" s="36"/>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" ht="15.75" customHeight="1">
       <c r="A421" s="38"/>
       <c r="B421" s="39"/>
       <c r="C421" s="39"/>
       <c r="D421" s="33"/>
       <c r="E421" s="33"/>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" ht="15.75" customHeight="1">
       <c r="A422" s="35"/>
       <c r="B422" s="37"/>
       <c r="C422" s="37"/>
       <c r="D422" s="37"/>
       <c r="E422" s="37"/>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" ht="15.75" customHeight="1">
       <c r="A423" s="38"/>
       <c r="B423" s="39"/>
       <c r="C423" s="39"/>
       <c r="D423" s="33"/>
       <c r="E423" s="33"/>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" ht="15.75" customHeight="1">
       <c r="A424" s="35"/>
       <c r="B424" s="37"/>
       <c r="C424" s="37"/>
       <c r="D424" s="37"/>
       <c r="E424" s="37"/>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" ht="15.75" customHeight="1">
       <c r="A425" s="38"/>
       <c r="B425" s="39"/>
       <c r="C425" s="39"/>
       <c r="D425" s="33"/>
       <c r="E425" s="33"/>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" ht="15.75" customHeight="1">
       <c r="A426" s="38"/>
       <c r="B426" s="39"/>
       <c r="C426" s="33"/>
       <c r="D426" s="33"/>
       <c r="E426" s="33"/>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" ht="15.75" customHeight="1">
       <c r="A427" s="35"/>
       <c r="B427" s="36"/>
       <c r="C427" s="36"/>
       <c r="D427" s="36"/>
       <c r="E427" s="36"/>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" ht="15.75" customHeight="1">
       <c r="A428" s="38"/>
       <c r="B428" s="39"/>
       <c r="C428" s="39"/>
       <c r="D428" s="33"/>
       <c r="E428" s="33"/>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" ht="15.75" customHeight="1">
       <c r="A429" s="35"/>
       <c r="B429" s="37"/>
       <c r="C429" s="37"/>
       <c r="D429" s="37"/>
       <c r="E429" s="37"/>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" ht="15.75" customHeight="1">
       <c r="A430" s="38"/>
       <c r="B430" s="39"/>
       <c r="C430" s="39"/>
       <c r="D430" s="33"/>
       <c r="E430" s="33"/>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" ht="15.75" customHeight="1">
       <c r="A431" s="35"/>
       <c r="B431" s="37"/>
       <c r="C431" s="37"/>
       <c r="D431" s="37"/>
       <c r="E431" s="37"/>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" ht="15.75" customHeight="1">
       <c r="A432" s="38"/>
       <c r="B432" s="39"/>
       <c r="C432" s="39"/>
       <c r="D432" s="33"/>
       <c r="E432" s="33"/>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" ht="15.75" customHeight="1">
       <c r="A433" s="35"/>
       <c r="B433" s="33"/>
       <c r="C433" s="33"/>
       <c r="D433" s="33"/>
       <c r="E433" s="33"/>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" ht="15.75" customHeight="1">
       <c r="A434" s="35"/>
       <c r="B434" s="36"/>
       <c r="C434" s="36"/>
       <c r="D434" s="36"/>
       <c r="E434" s="36"/>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" ht="15.75" customHeight="1">
       <c r="A435" s="38"/>
       <c r="B435" s="39"/>
       <c r="C435" s="39"/>
       <c r="D435" s="33"/>
       <c r="E435" s="33"/>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" ht="15.75" customHeight="1">
       <c r="A436" s="35"/>
       <c r="B436" s="37"/>
       <c r="C436" s="37"/>
       <c r="D436" s="37"/>
       <c r="E436" s="37"/>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" ht="15.75" customHeight="1">
       <c r="A437" s="38"/>
       <c r="B437" s="39"/>
       <c r="C437" s="39"/>
       <c r="D437" s="33"/>
       <c r="E437" s="33"/>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" ht="15.75" customHeight="1">
       <c r="A438" s="35"/>
       <c r="B438" s="37"/>
       <c r="C438" s="37"/>
       <c r="D438" s="37"/>
       <c r="E438" s="37"/>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" ht="15.75" customHeight="1">
       <c r="A439" s="38"/>
       <c r="B439" s="39"/>
       <c r="C439" s="39"/>
       <c r="D439" s="33"/>
       <c r="E439" s="33"/>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" ht="15.75" customHeight="1">
       <c r="A440" s="38"/>
       <c r="B440" s="39"/>
       <c r="C440" s="33"/>
       <c r="D440" s="33"/>
       <c r="E440" s="33"/>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" ht="15.75" customHeight="1">
       <c r="A441" s="35"/>
       <c r="B441" s="36"/>
       <c r="C441" s="36"/>
       <c r="D441" s="36"/>
       <c r="E441" s="36"/>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" ht="15.75" customHeight="1">
       <c r="A442" s="38"/>
       <c r="B442" s="39"/>
       <c r="C442" s="39"/>
       <c r="D442" s="33"/>
       <c r="E442" s="33"/>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" ht="15.75" customHeight="1">
       <c r="A443" s="35"/>
       <c r="B443" s="37"/>
       <c r="C443" s="37"/>
       <c r="D443" s="37"/>
       <c r="E443" s="37"/>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" ht="15.75" customHeight="1">
       <c r="A444" s="38"/>
       <c r="B444" s="39"/>
       <c r="C444" s="39"/>
       <c r="D444" s="33"/>
       <c r="E444" s="33"/>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" ht="15.75" customHeight="1">
       <c r="A445" s="35"/>
       <c r="B445" s="37"/>
       <c r="C445" s="37"/>
       <c r="D445" s="37"/>
       <c r="E445" s="37"/>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" ht="15.75" customHeight="1">
       <c r="A446" s="38"/>
       <c r="B446" s="39"/>
       <c r="C446" s="39"/>
       <c r="D446" s="33"/>
       <c r="E446" s="33"/>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" ht="15.75" customHeight="1">
       <c r="A447" s="35"/>
       <c r="B447" s="33"/>
       <c r="C447" s="33"/>
       <c r="D447" s="33"/>
       <c r="E447" s="33"/>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" ht="15.75" customHeight="1">
       <c r="A448" s="35"/>
       <c r="B448" s="36"/>
       <c r="C448" s="36"/>
       <c r="D448" s="36"/>
       <c r="E448" s="36"/>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" ht="15.75" customHeight="1">
       <c r="A449" s="38"/>
       <c r="B449" s="39"/>
       <c r="C449" s="39"/>
       <c r="D449" s="33"/>
       <c r="E449" s="33"/>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" ht="15.75" customHeight="1">
       <c r="A450" s="35"/>
       <c r="B450" s="34"/>
       <c r="C450" s="34"/>
       <c r="D450" s="37"/>
       <c r="E450" s="37"/>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" ht="15.75" customHeight="1">
       <c r="A451" s="38"/>
       <c r="B451" s="39"/>
       <c r="C451" s="39"/>
       <c r="D451" s="33"/>
       <c r="E451" s="33"/>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" ht="15.75" customHeight="1">
       <c r="A452" s="35"/>
       <c r="B452" s="34"/>
       <c r="C452" s="37"/>
       <c r="D452" s="37"/>
       <c r="E452" s="37"/>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" ht="15.75" customHeight="1">
       <c r="A453" s="38"/>
       <c r="B453" s="39"/>
       <c r="C453" s="39"/>
       <c r="D453" s="33"/>
       <c r="E453" s="33"/>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" ht="15.75" customHeight="1">
       <c r="A454" s="35"/>
       <c r="B454" s="33"/>
       <c r="C454" s="33"/>
       <c r="D454" s="33"/>
       <c r="E454" s="33"/>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" ht="15.75" customHeight="1">
       <c r="A455" s="35"/>
       <c r="B455" s="36"/>
       <c r="C455" s="36"/>
       <c r="D455" s="36"/>
       <c r="E455" s="36"/>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" ht="15.75" customHeight="1">
       <c r="A456" s="38"/>
       <c r="B456" s="39"/>
       <c r="C456" s="39"/>
       <c r="D456" s="33"/>
       <c r="E456" s="33"/>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" ht="15.75" customHeight="1">
       <c r="A457" s="35"/>
       <c r="B457" s="37"/>
       <c r="C457" s="37"/>
       <c r="D457" s="37"/>
       <c r="E457" s="37"/>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" ht="15.75" customHeight="1">
       <c r="A458" s="38"/>
       <c r="B458" s="39"/>
       <c r="C458" s="39"/>
       <c r="D458" s="33"/>
       <c r="E458" s="33"/>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" ht="15.75" customHeight="1">
       <c r="A459" s="35"/>
       <c r="B459" s="37"/>
       <c r="C459" s="37"/>
       <c r="D459" s="37"/>
       <c r="E459" s="37"/>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" ht="15.75" customHeight="1">
       <c r="A460" s="38"/>
       <c r="B460" s="39"/>
       <c r="C460" s="39"/>
       <c r="D460" s="33"/>
       <c r="E460" s="33"/>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" ht="15.75" customHeight="1">
       <c r="A461" s="35"/>
       <c r="B461" s="33"/>
       <c r="C461" s="33"/>
       <c r="D461" s="33"/>
       <c r="E461" s="33"/>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" ht="15.75" customHeight="1">
       <c r="A462" s="35"/>
       <c r="B462" s="36"/>
       <c r="C462" s="36"/>
       <c r="D462" s="36"/>
       <c r="E462" s="36"/>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" ht="15.75" customHeight="1">
       <c r="A463" s="38"/>
       <c r="B463" s="39"/>
       <c r="C463" s="39"/>
       <c r="D463" s="33"/>
       <c r="E463" s="33"/>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" ht="15.75" customHeight="1">
       <c r="A464" s="35"/>
       <c r="B464" s="34"/>
       <c r="C464" s="34"/>
       <c r="D464" s="37"/>
       <c r="E464" s="37"/>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" ht="15.75" customHeight="1">
       <c r="A465" s="38"/>
       <c r="B465" s="39"/>
       <c r="C465" s="39"/>
       <c r="D465" s="33"/>
       <c r="E465" s="33"/>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" ht="15.75" customHeight="1">
       <c r="A466" s="35"/>
       <c r="B466" s="37"/>
       <c r="C466" s="37"/>
       <c r="D466" s="37"/>
       <c r="E466" s="37"/>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" ht="15.75" customHeight="1">
       <c r="A467" s="38"/>
       <c r="B467" s="39"/>
       <c r="C467" s="39"/>
       <c r="D467" s="33"/>
       <c r="E467" s="33"/>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" ht="15.75" customHeight="1">
       <c r="A468" s="35"/>
       <c r="B468" s="33"/>
       <c r="C468" s="33"/>
       <c r="D468" s="33"/>
       <c r="E468" s="33"/>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" ht="15.75" customHeight="1">
       <c r="A469" s="35"/>
       <c r="B469" s="36"/>
       <c r="C469" s="36"/>
       <c r="D469" s="36"/>
       <c r="E469" s="36"/>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" ht="15.75" customHeight="1">
       <c r="A470" s="38"/>
       <c r="B470" s="39"/>
       <c r="C470" s="39"/>
       <c r="D470" s="33"/>
       <c r="E470" s="33"/>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" ht="15.75" customHeight="1">
       <c r="A471" s="35"/>
       <c r="B471" s="37"/>
       <c r="C471" s="37"/>
       <c r="D471" s="37"/>
       <c r="E471" s="37"/>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" ht="15.75" customHeight="1">
       <c r="A472" s="38"/>
       <c r="B472" s="39"/>
       <c r="C472" s="39"/>
       <c r="D472" s="33"/>
       <c r="E472" s="33"/>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" ht="15.75" customHeight="1">
       <c r="A473" s="35"/>
       <c r="B473" s="37"/>
       <c r="C473" s="37"/>
       <c r="D473" s="37"/>
       <c r="E473" s="37"/>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" ht="15.75" customHeight="1">
       <c r="A474" s="38"/>
       <c r="B474" s="39"/>
       <c r="C474" s="39"/>
       <c r="D474" s="33"/>
       <c r="E474" s="33"/>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" ht="15.75" customHeight="1">
       <c r="A475" s="38"/>
       <c r="B475" s="39"/>
       <c r="C475" s="33"/>
       <c r="D475" s="33"/>
       <c r="E475" s="33"/>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" ht="15.75" customHeight="1">
       <c r="A476" s="35"/>
       <c r="B476" s="36"/>
       <c r="C476" s="36"/>
       <c r="D476" s="36"/>
       <c r="E476" s="36"/>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" ht="15.75" customHeight="1">
       <c r="A477" s="38"/>
       <c r="B477" s="39"/>
       <c r="C477" s="39"/>
       <c r="D477" s="33"/>
       <c r="E477" s="33"/>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" ht="15.75" customHeight="1">
       <c r="A478" s="35"/>
       <c r="B478" s="34"/>
       <c r="C478" s="34"/>
       <c r="D478" s="37"/>
       <c r="E478" s="37"/>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" ht="15.75" customHeight="1">
       <c r="A479" s="38"/>
       <c r="B479" s="39"/>
       <c r="C479" s="39"/>
       <c r="D479" s="33"/>
       <c r="E479" s="33"/>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" ht="15.75" customHeight="1">
       <c r="A480" s="35"/>
       <c r="B480" s="37"/>
       <c r="C480" s="37"/>
       <c r="D480" s="37"/>
       <c r="E480" s="37"/>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" ht="15.75" customHeight="1">
       <c r="A481" s="38"/>
       <c r="B481" s="39"/>
       <c r="C481" s="39"/>
       <c r="D481" s="33"/>
       <c r="E481" s="33"/>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" ht="15.75" customHeight="1">
       <c r="A482" s="35"/>
       <c r="B482" s="33"/>
       <c r="C482" s="33"/>
       <c r="D482" s="33"/>
       <c r="E482" s="33"/>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" ht="15.75" customHeight="1">
       <c r="A483" s="35"/>
       <c r="B483" s="36"/>
       <c r="C483" s="36"/>
       <c r="D483" s="36"/>
       <c r="E483" s="36"/>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" ht="15.75" customHeight="1">
       <c r="A484" s="38"/>
       <c r="B484" s="39"/>
       <c r="C484" s="39"/>
       <c r="D484" s="33"/>
       <c r="E484" s="33"/>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" ht="15.75" customHeight="1">
       <c r="A485" s="35"/>
       <c r="B485" s="34"/>
       <c r="C485" s="34"/>
       <c r="D485" s="37"/>
       <c r="E485" s="37"/>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" ht="15.75" customHeight="1">
       <c r="A486" s="38"/>
       <c r="B486" s="39"/>
       <c r="C486" s="39"/>
       <c r="D486" s="33"/>
       <c r="E486" s="33"/>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" ht="15.75" customHeight="1">
       <c r="A487" s="35"/>
       <c r="B487" s="37"/>
       <c r="C487" s="37"/>
       <c r="D487" s="37"/>
       <c r="E487" s="37"/>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" ht="15.75" customHeight="1">
       <c r="A488" s="38"/>
       <c r="B488" s="39"/>
       <c r="C488" s="39"/>
       <c r="D488" s="33"/>
       <c r="E488" s="33"/>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" ht="15.75" customHeight="1">
       <c r="A489" s="38"/>
       <c r="B489" s="39"/>
       <c r="C489" s="33"/>
       <c r="D489" s="33"/>
       <c r="E489" s="33"/>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" ht="15.75" customHeight="1">
       <c r="A490" s="35"/>
       <c r="B490" s="36"/>
       <c r="C490" s="36"/>
       <c r="D490" s="36"/>
       <c r="E490" s="36"/>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" ht="15.75" customHeight="1">
       <c r="A491" s="38"/>
       <c r="B491" s="39"/>
       <c r="C491" s="39"/>
       <c r="D491" s="33"/>
       <c r="E491" s="33"/>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" ht="15.75" customHeight="1">
       <c r="A492" s="35"/>
       <c r="B492" s="37"/>
       <c r="C492" s="37"/>
       <c r="D492" s="37"/>
       <c r="E492" s="37"/>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" ht="15.75" customHeight="1">
       <c r="A493" s="38"/>
       <c r="B493" s="39"/>
       <c r="C493" s="39"/>
       <c r="D493" s="33"/>
       <c r="E493" s="33"/>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" ht="15.75" customHeight="1">
       <c r="A494" s="35"/>
       <c r="B494" s="37"/>
       <c r="C494" s="37"/>
       <c r="D494" s="37"/>
       <c r="E494" s="37"/>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" ht="15.75" customHeight="1">
       <c r="A495" s="38"/>
       <c r="B495" s="39"/>
       <c r="C495" s="39"/>
       <c r="D495" s="33"/>
       <c r="E495" s="33"/>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" ht="15.75" customHeight="1">
       <c r="A496" s="38"/>
       <c r="B496" s="39"/>
       <c r="C496" s="33"/>
       <c r="D496" s="33"/>
       <c r="E496" s="33"/>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" ht="15.75" customHeight="1">
       <c r="A497" s="35"/>
       <c r="B497" s="36"/>
       <c r="C497" s="36"/>
       <c r="D497" s="36"/>
       <c r="E497" s="36"/>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" ht="15.75" customHeight="1">
       <c r="A498" s="38"/>
       <c r="B498" s="39"/>
       <c r="C498" s="39"/>
       <c r="D498" s="33"/>
       <c r="E498" s="33"/>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" ht="15.75" customHeight="1">
       <c r="A499" s="35"/>
       <c r="B499" s="37"/>
       <c r="C499" s="37"/>
       <c r="D499" s="37"/>
       <c r="E499" s="37"/>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" ht="15.75" customHeight="1">
       <c r="A500" s="38"/>
       <c r="B500" s="39"/>
       <c r="C500" s="39"/>
       <c r="D500" s="33"/>
       <c r="E500" s="33"/>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" ht="15.75" customHeight="1">
       <c r="A501" s="35"/>
       <c r="B501" s="37"/>
       <c r="C501" s="37"/>
       <c r="D501" s="37"/>
       <c r="E501" s="37"/>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" ht="15.75" customHeight="1">
       <c r="A502" s="38"/>
       <c r="B502" s="39"/>
       <c r="C502" s="39"/>
       <c r="D502" s="33"/>
       <c r="E502" s="33"/>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" ht="15.75" customHeight="1">
       <c r="A503" s="35"/>
       <c r="B503" s="33"/>
       <c r="C503" s="33"/>
       <c r="D503" s="33"/>
       <c r="E503" s="33"/>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" ht="15.75" customHeight="1">
       <c r="A504" s="35"/>
       <c r="B504" s="36"/>
       <c r="C504" s="36"/>
       <c r="D504" s="36"/>
       <c r="E504" s="36"/>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" ht="15.75" customHeight="1">
       <c r="A505" s="38"/>
       <c r="B505" s="39"/>
       <c r="C505" s="39"/>
       <c r="D505" s="33"/>
       <c r="E505" s="33"/>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" ht="15.75" customHeight="1">
       <c r="A506" s="35"/>
       <c r="B506" s="37"/>
       <c r="C506" s="37"/>
       <c r="D506" s="37"/>
       <c r="E506" s="37"/>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" ht="15.75" customHeight="1">
       <c r="A507" s="38"/>
       <c r="B507" s="39"/>
       <c r="C507" s="39"/>
       <c r="D507" s="33"/>
       <c r="E507" s="33"/>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" ht="15.75" customHeight="1">
       <c r="A508" s="35"/>
       <c r="B508" s="37"/>
       <c r="C508" s="37"/>
       <c r="D508" s="37"/>
       <c r="E508" s="37"/>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" ht="15.75" customHeight="1">
       <c r="A509" s="38"/>
       <c r="B509" s="39"/>
       <c r="C509" s="39"/>
       <c r="D509" s="33"/>
       <c r="E509" s="33"/>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" ht="15.75" customHeight="1">
       <c r="A510" s="35"/>
       <c r="B510" s="33"/>
       <c r="C510" s="33"/>
       <c r="D510" s="33"/>
       <c r="E510" s="33"/>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" ht="15.75" customHeight="1">
       <c r="A511" s="35"/>
       <c r="B511" s="36"/>
       <c r="C511" s="36"/>
       <c r="D511" s="36"/>
       <c r="E511" s="36"/>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" ht="15.75" customHeight="1">
       <c r="A512" s="38"/>
       <c r="B512" s="39"/>
       <c r="C512" s="39"/>
       <c r="D512" s="33"/>
       <c r="E512" s="33"/>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" ht="15.75" customHeight="1">
       <c r="A513" s="35"/>
       <c r="B513" s="37"/>
       <c r="C513" s="37"/>
       <c r="D513" s="37"/>
       <c r="E513" s="37"/>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" ht="15.75" customHeight="1">
       <c r="A514" s="38"/>
       <c r="B514" s="39"/>
       <c r="C514" s="39"/>
       <c r="D514" s="33"/>
       <c r="E514" s="33"/>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" ht="15.75" customHeight="1">
       <c r="A515" s="35"/>
       <c r="B515" s="37"/>
       <c r="C515" s="37"/>
       <c r="D515" s="37"/>
       <c r="E515" s="37"/>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" ht="15.75" customHeight="1">
       <c r="A516" s="38"/>
       <c r="B516" s="39"/>
       <c r="C516" s="39"/>
       <c r="D516" s="33"/>
       <c r="E516" s="33"/>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" ht="15.75" customHeight="1">
       <c r="A517" s="35"/>
       <c r="B517" s="33"/>
       <c r="C517" s="33"/>
       <c r="D517" s="33"/>
       <c r="E517" s="33"/>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" ht="15.75" customHeight="1">
       <c r="A518" s="35"/>
       <c r="B518" s="36"/>
       <c r="C518" s="36"/>
       <c r="D518" s="36"/>
       <c r="E518" s="36"/>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" ht="15.75" customHeight="1">
       <c r="A519" s="38"/>
       <c r="B519" s="39"/>
       <c r="C519" s="39"/>
       <c r="D519" s="33"/>
       <c r="E519" s="33"/>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" ht="15.75" customHeight="1">
       <c r="A520" s="35"/>
       <c r="B520" s="37"/>
       <c r="C520" s="37"/>
       <c r="D520" s="37"/>
       <c r="E520" s="37"/>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" ht="15.75" customHeight="1">
       <c r="A521" s="38"/>
       <c r="B521" s="39"/>
       <c r="C521" s="39"/>
       <c r="D521" s="33"/>
       <c r="E521" s="33"/>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" ht="15.75" customHeight="1">
       <c r="A522" s="35"/>
       <c r="B522" s="37"/>
       <c r="C522" s="37"/>
       <c r="D522" s="37"/>
       <c r="E522" s="37"/>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" ht="15.75" customHeight="1">
       <c r="A523" s="38"/>
       <c r="B523" s="39"/>
       <c r="C523" s="39"/>
       <c r="D523" s="33"/>
       <c r="E523" s="33"/>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" ht="15.75" customHeight="1">
       <c r="A524" s="38"/>
       <c r="B524" s="39"/>
       <c r="C524" s="33"/>
       <c r="D524" s="33"/>
       <c r="E524" s="33"/>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" ht="15.75" customHeight="1">
       <c r="A525" s="35"/>
       <c r="B525" s="36"/>
       <c r="C525" s="36"/>
       <c r="D525" s="36"/>
       <c r="E525" s="36"/>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" ht="15.75" customHeight="1">
       <c r="A526" s="38"/>
       <c r="B526" s="39"/>
       <c r="C526" s="39"/>
       <c r="D526" s="33"/>
       <c r="E526" s="33"/>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" ht="15.75" customHeight="1">
       <c r="A527" s="35"/>
       <c r="B527" s="34"/>
       <c r="C527" s="34"/>
       <c r="D527" s="37"/>
       <c r="E527" s="37"/>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" ht="15.75" customHeight="1">
       <c r="A528" s="38"/>
       <c r="B528" s="39"/>
       <c r="C528" s="39"/>
       <c r="D528" s="33"/>
       <c r="E528" s="33"/>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" ht="15.75" customHeight="1">
       <c r="A529" s="35"/>
       <c r="B529" s="37"/>
       <c r="C529" s="37"/>
       <c r="D529" s="37"/>
       <c r="E529" s="37"/>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" ht="15.75" customHeight="1">
       <c r="A530" s="38"/>
       <c r="B530" s="39"/>
       <c r="C530" s="39"/>
@@ -29961,109 +29961,112 @@
     </row>
   </sheetData>
   <mergeCells count="241">
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A381:C381"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="A386:C386"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="A390:C390"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A316:C316"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A310:B310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="A312:B312"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A246:C246"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="A325:C325"/>
-    <mergeCell ref="A327:C327"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="A346:C346"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A470:C470"/>
-    <mergeCell ref="A465:C465"/>
-    <mergeCell ref="A467:C467"/>
-    <mergeCell ref="A449:C449"/>
-    <mergeCell ref="A451:C451"/>
-    <mergeCell ref="A442:C442"/>
-    <mergeCell ref="A444:C444"/>
-    <mergeCell ref="A446:C446"/>
-    <mergeCell ref="A456:C456"/>
-    <mergeCell ref="A458:C458"/>
-    <mergeCell ref="A460:C460"/>
-    <mergeCell ref="A463:C463"/>
-    <mergeCell ref="A453:C453"/>
+    <mergeCell ref="A404:C404"/>
+    <mergeCell ref="A428:C428"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="A435:C435"/>
+    <mergeCell ref="A437:C437"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="A440:B440"/>
+    <mergeCell ref="A418:C418"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A509:C509"/>
+    <mergeCell ref="A512:C512"/>
+    <mergeCell ref="A514:C514"/>
+    <mergeCell ref="A516:C516"/>
+    <mergeCell ref="A519:C519"/>
+    <mergeCell ref="A505:C505"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="A367:C367"/>
+    <mergeCell ref="A369:C369"/>
+    <mergeCell ref="A372:C372"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A416:C416"/>
+    <mergeCell ref="A423:C423"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="A426:B426"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="A407:C407"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="A393:C393"/>
+    <mergeCell ref="A395:C395"/>
+    <mergeCell ref="A397:C397"/>
+    <mergeCell ref="A400:C400"/>
+    <mergeCell ref="A402:C402"/>
     <mergeCell ref="A528:C528"/>
     <mergeCell ref="A530:C530"/>
     <mergeCell ref="A472:C472"/>
@@ -30088,17 +30091,101 @@
     <mergeCell ref="A500:C500"/>
     <mergeCell ref="A502:C502"/>
     <mergeCell ref="A507:C507"/>
-    <mergeCell ref="A509:C509"/>
-    <mergeCell ref="A512:C512"/>
-    <mergeCell ref="A514:C514"/>
-    <mergeCell ref="A516:C516"/>
-    <mergeCell ref="A519:C519"/>
-    <mergeCell ref="A505:C505"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="A367:C367"/>
-    <mergeCell ref="A369:C369"/>
-    <mergeCell ref="A372:C372"/>
-    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A470:C470"/>
+    <mergeCell ref="A465:C465"/>
+    <mergeCell ref="A467:C467"/>
+    <mergeCell ref="A449:C449"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="A444:C444"/>
+    <mergeCell ref="A446:C446"/>
+    <mergeCell ref="A456:C456"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A460:C460"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A453:C453"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A246:C246"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A390:C390"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A316:C316"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="A325:C325"/>
+    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="A346:C346"/>
     <mergeCell ref="A348:C348"/>
     <mergeCell ref="A351:C351"/>
     <mergeCell ref="A353:C353"/>
@@ -30106,102 +30193,15 @@
     <mergeCell ref="A358:C358"/>
     <mergeCell ref="A360:C360"/>
     <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="A416:C416"/>
-    <mergeCell ref="A423:C423"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A426:B426"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="A407:C407"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="A393:C393"/>
-    <mergeCell ref="A395:C395"/>
-    <mergeCell ref="A397:C397"/>
-    <mergeCell ref="A400:C400"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A404:C404"/>
-    <mergeCell ref="A428:C428"/>
-    <mergeCell ref="A430:C430"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="A435:C435"/>
-    <mergeCell ref="A437:C437"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="A440:B440"/>
-    <mergeCell ref="A418:C418"/>
-    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A381:C381"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A339:C339"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="A386:C386"/>
+    <mergeCell ref="A388:C388"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -30210,4 +30210,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>